--- a/原创-基础安全/基础安全方案-持续更新.xlsx
+++ b/原创-基础安全/基础安全方案-持续更新.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300" tabRatio="930" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930"/>
   </bookViews>
   <sheets>
     <sheet name="流程总览" sheetId="15" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="239">
   <si>
     <t>分类</t>
   </si>
@@ -36,411 +36,340 @@
     <t>资产项</t>
   </si>
   <si>
+    <t>安全管理体系</t>
+  </si>
+  <si>
+    <t>系统支持</t>
+  </si>
+  <si>
+    <t>技术体系</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>基础资源</t>
+  </si>
+  <si>
+    <t>可被消耗，占用，按量计费</t>
+  </si>
+  <si>
+    <t>服务器</t>
+  </si>
+  <si>
+    <t>服务器/k8s申请，应当有申请系统，申请人在申请系统向运维提出权限申请，各级审批后，运维可进行权限分配。</t>
+  </si>
+  <si>
+    <t>如果有项目系统之类的东西，需要设置规则将安全默认加入每个项目中。系统按节点给安全发通知。</t>
+  </si>
+  <si>
+    <t>资产发现。</t>
+  </si>
+  <si>
+    <t>基础服务</t>
+  </si>
+  <si>
+    <t>只能按时间计费</t>
+  </si>
+  <si>
+    <t>可建设SDL系统，内置常见功能项，让开发选择，选择后自动生成需求表给开发。</t>
+  </si>
+  <si>
+    <t>SDL系统应设置后台功能可添加功能模块或安全需求条目</t>
+  </si>
+  <si>
+    <t>jump批量对基线进行检查</t>
+  </si>
+  <si>
+    <t>公网映射管理</t>
+  </si>
+  <si>
+    <t>端口开发管理</t>
+  </si>
+  <si>
+    <t>资源</t>
+  </si>
+  <si>
+    <t>动态IP</t>
+  </si>
+  <si>
+    <t>验证码短信资源</t>
+  </si>
+  <si>
+    <t>域名</t>
+  </si>
+  <si>
+    <t>OSS</t>
+  </si>
+  <si>
+    <t>类</t>
+  </si>
+  <si>
+    <t>VPC服务</t>
+  </si>
+  <si>
+    <t>资产梳理</t>
+  </si>
+  <si>
+    <t>资产类型</t>
+  </si>
+  <si>
+    <t>是否存在</t>
+  </si>
+  <si>
+    <t>安全管理问题，权限管理要重点关注</t>
+  </si>
+  <si>
+    <t>管理方案</t>
+  </si>
+  <si>
+    <t>梳理方法</t>
+  </si>
+  <si>
+    <t>IP类</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>归属部门、归属项目、所在位置、登录权限、敏感服务、网段网络隔离、数据库与应用的用途隔离等</t>
+  </si>
+  <si>
+    <t>jumpserver，服务器备案，敏感服务划分及扫描，网络隔离</t>
+  </si>
+  <si>
+    <t>云服务器可使用官方接口获取入库，IDC服务器可使用网段扫描，办公室可手动统计</t>
+  </si>
+  <si>
+    <t>K8S自带隔离及管理</t>
+  </si>
+  <si>
+    <t>负载均衡/动态IP</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>归属部门、归属项目、所在位置、使用状态、绑定机器</t>
+  </si>
+  <si>
+    <t>备案</t>
+  </si>
+  <si>
+    <t>使用接口获取入库</t>
+  </si>
+  <si>
+    <t>办公网基础设备（交换机、路由器、打印机）</t>
+  </si>
+  <si>
+    <t>网络管理</t>
+  </si>
+  <si>
+    <t>AD域</t>
+  </si>
+  <si>
+    <t>手动统计</t>
+  </si>
+  <si>
+    <t>域名类</t>
+  </si>
+  <si>
+    <t>公司域名</t>
+  </si>
+  <si>
+    <t>域名续费及证书、所属项目</t>
+  </si>
+  <si>
+    <t>过期监控、域名备案</t>
+  </si>
+  <si>
+    <t>使用接口入库</t>
+  </si>
+  <si>
+    <t>CDN、waf、K8S等云服务</t>
+  </si>
+  <si>
+    <t>续费、归属、域名解析等</t>
+  </si>
+  <si>
+    <t>过期监控、服务备案</t>
+  </si>
+  <si>
+    <t>应用资产</t>
+  </si>
+  <si>
+    <t>web系统</t>
+  </si>
+  <si>
+    <t>归属部门、归属项目、。后台类系统的公共账号</t>
+  </si>
+  <si>
+    <t>域名备案、系统不允许存在公共账号</t>
+  </si>
+  <si>
+    <t>对应域名入库</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>渠道上架账号，用户协议合规等合规类规定</t>
+  </si>
+  <si>
+    <t>限制接触范围</t>
+  </si>
+  <si>
+    <t>对应域名入库、从各平台商店获取</t>
+  </si>
+  <si>
+    <t>小程序、公众号等</t>
+  </si>
+  <si>
+    <t>渠道上架账号</t>
+  </si>
+  <si>
+    <t>数据资产</t>
+  </si>
+  <si>
+    <t>数据库</t>
+  </si>
+  <si>
+    <t>归属及账号管理、外网、访问权限</t>
+  </si>
+  <si>
+    <t>备案、网络隔离、权限隔离</t>
+  </si>
+  <si>
+    <t>敏感服务扫描，云服务备案</t>
+  </si>
+  <si>
+    <t>日志中心</t>
+  </si>
+  <si>
+    <t>账号管理、外网、访问权限、敏感信息</t>
+  </si>
+  <si>
+    <t>备案、网络隔离、权限隔离、不收录敏感信息</t>
+  </si>
+  <si>
+    <t>手动统计、域名备案</t>
+  </si>
+  <si>
+    <t>数据平台/大数据</t>
+  </si>
+  <si>
+    <t>mq等队列</t>
+  </si>
+  <si>
+    <t>第三方系统或服务</t>
+  </si>
+  <si>
+    <t>oss</t>
+  </si>
+  <si>
+    <t>oss权限安全管理，梳理权限。ak，角色多对多</t>
+  </si>
+  <si>
+    <t>备案，隔离划分</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>弱口令、公共账号</t>
+  </si>
+  <si>
+    <t>管理员设置密码规则</t>
+  </si>
+  <si>
+    <t>从oa获取</t>
+  </si>
+  <si>
+    <t>代码资产</t>
+  </si>
+  <si>
+    <t>权限过大，git管理混乱、无有效期设置</t>
+  </si>
+  <si>
+    <t>权限审计、设置申请流程</t>
+  </si>
+  <si>
+    <t>git仓库按产品梳理分组</t>
+  </si>
+  <si>
+    <t>容器资产</t>
+  </si>
+  <si>
+    <t>K8S</t>
+  </si>
+  <si>
+    <t>权限过大，权限信息缺失，公共账号</t>
+  </si>
+  <si>
+    <t>权限管理表格</t>
+  </si>
+  <si>
+    <t>漏洞</t>
+  </si>
+  <si>
+    <t>漏洞跟进复测</t>
+  </si>
+  <si>
+    <t>漏洞提醒</t>
+  </si>
+  <si>
+    <t>禅道、SRC等</t>
+  </si>
+  <si>
+    <t>公司员工</t>
+  </si>
+  <si>
+    <t>员工</t>
+  </si>
+  <si>
+    <t>内鬼，安全意识</t>
+  </si>
+  <si>
+    <t>安全意识培训，法律科普，DLP等监控设备安装</t>
+  </si>
+  <si>
+    <t>全员培训</t>
+  </si>
+  <si>
+    <t>网络资产</t>
+  </si>
+  <si>
+    <t>生产网络</t>
+  </si>
+  <si>
+    <t>网络职能混淆混乱</t>
+  </si>
+  <si>
+    <t>测试网络</t>
+  </si>
+  <si>
+    <t>弱口令等网络接入控制</t>
+  </si>
+  <si>
+    <t>开发网络</t>
+  </si>
+  <si>
+    <t>ad域</t>
+  </si>
+  <si>
+    <t>办公网络</t>
+  </si>
+  <si>
+    <t>网络隔离问题</t>
+  </si>
+  <si>
+    <t>平台账号资产</t>
+  </si>
+  <si>
+    <t>微博，B站，知乎，微信</t>
+  </si>
+  <si>
     <t>安全管理</t>
-  </si>
-  <si>
-    <t>基础安全项</t>
-  </si>
-  <si>
-    <t>系统支持</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>基础资源</t>
-  </si>
-  <si>
-    <t>可被消耗，占用，按量计费</t>
-  </si>
-  <si>
-    <t>服务器</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">服务器申请，应当有申请系统，申请系统串联 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>SDL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>工作流，申请人在申请系统向运维提出权限申请，申请系统串联到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>SDL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>工作系统，申请人在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>SDL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进行权限备案，项目进度备案，进行安全开发培训，（内容可加入服务器安全使用），考试通过后，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>SDL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>向运维发出信号，运维可进行权限分配。</t>
-    </r>
-  </si>
-  <si>
-    <t>如果有项目系统之类的东西，需要设置规则将安全默认加入每个项目中。系统按节点给安全发通知。</t>
-  </si>
-  <si>
-    <t>基础服务</t>
-  </si>
-  <si>
-    <t>只能按时间计费</t>
-  </si>
-  <si>
-    <t>安全需求</t>
-  </si>
-  <si>
-    <t>可建设SDL系统，内置常见功能项，让开发选择，选择后自动生成需求表给开发。</t>
-  </si>
-  <si>
-    <t>SDL系统应设置后台功能可添加功能模块或安全需求条目</t>
-  </si>
-  <si>
-    <t>安全评估</t>
-  </si>
-  <si>
-    <t>资源</t>
-  </si>
-  <si>
-    <t>动态IP</t>
-  </si>
-  <si>
-    <t>验证码短信资源</t>
-  </si>
-  <si>
-    <t>域名</t>
-  </si>
-  <si>
-    <t>OSS</t>
-  </si>
-  <si>
-    <t>类</t>
-  </si>
-  <si>
-    <t>VPC服务</t>
-  </si>
-  <si>
-    <t>资产梳理</t>
-  </si>
-  <si>
-    <t>资产类型</t>
-  </si>
-  <si>
-    <t>是否存在</t>
-  </si>
-  <si>
-    <t>安全管理问题，权限管理要重点关注</t>
-  </si>
-  <si>
-    <t>管理方案</t>
-  </si>
-  <si>
-    <t>梳理方法</t>
-  </si>
-  <si>
-    <t>IP类</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>归属部门、归属项目、所在位置、登录权限、敏感服务、网段网络隔离、数据库与应用的用途隔离等</t>
-  </si>
-  <si>
-    <t>jumpserver，服务器备案，敏感服务划分及扫描，网络隔离</t>
-  </si>
-  <si>
-    <t>云服务器可使用官方接口获取入库，IDC服务器可使用网段扫描，办公室可手动统计</t>
-  </si>
-  <si>
-    <t>K8S自带隔离及管理</t>
-  </si>
-  <si>
-    <t>负载均衡/动态IP</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>归属部门、归属项目、所在位置、使用状态、绑定机器</t>
-  </si>
-  <si>
-    <t>备案</t>
-  </si>
-  <si>
-    <t>使用接口获取入库</t>
-  </si>
-  <si>
-    <t>办公网基础设备（交换机、路由器、打印机）</t>
-  </si>
-  <si>
-    <t>网络管理</t>
-  </si>
-  <si>
-    <t>AD域</t>
-  </si>
-  <si>
-    <t>手动统计</t>
-  </si>
-  <si>
-    <t>域名类</t>
-  </si>
-  <si>
-    <t>公司域名</t>
-  </si>
-  <si>
-    <t>域名续费及证书、所属项目</t>
-  </si>
-  <si>
-    <t>过期监控、域名备案</t>
-  </si>
-  <si>
-    <t>使用接口入库</t>
-  </si>
-  <si>
-    <t>CDN、waf、K8S等云服务</t>
-  </si>
-  <si>
-    <t>续费、归属、域名解析等</t>
-  </si>
-  <si>
-    <t>过期监控、服务备案</t>
-  </si>
-  <si>
-    <t>应用资产</t>
-  </si>
-  <si>
-    <t>web系统</t>
-  </si>
-  <si>
-    <t>归属部门、归属项目、。后台类系统的公共账号</t>
-  </si>
-  <si>
-    <t>域名备案、系统不允许存在公共账号</t>
-  </si>
-  <si>
-    <t>对应域名入库</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>渠道上架账号，用户协议合规等合规类规定</t>
-  </si>
-  <si>
-    <t>限制接触范围</t>
-  </si>
-  <si>
-    <t>对应域名入库、从各平台商店获取</t>
-  </si>
-  <si>
-    <t>小程序、公众号等</t>
-  </si>
-  <si>
-    <t>渠道上架账号</t>
-  </si>
-  <si>
-    <t>数据资产</t>
-  </si>
-  <si>
-    <t>数据库</t>
-  </si>
-  <si>
-    <t>归属及账号管理、外网、访问权限</t>
-  </si>
-  <si>
-    <t>备案、网络隔离、权限隔离</t>
-  </si>
-  <si>
-    <t>敏感服务扫描，云服务备案</t>
-  </si>
-  <si>
-    <t>日志中心</t>
-  </si>
-  <si>
-    <t>账号管理、外网、访问权限、敏感信息</t>
-  </si>
-  <si>
-    <t>备案、网络隔离、权限隔离、不收录敏感信息</t>
-  </si>
-  <si>
-    <t>手动统计、域名备案</t>
-  </si>
-  <si>
-    <t>数据平台/大数据</t>
-  </si>
-  <si>
-    <t>mq等队列</t>
-  </si>
-  <si>
-    <t>第三方系统或服务</t>
-  </si>
-  <si>
-    <t>oss</t>
-  </si>
-  <si>
-    <t>oss权限安全管理，梳理权限。ak，角色多对多</t>
-  </si>
-  <si>
-    <t>备案，隔离划分</t>
-  </si>
-  <si>
-    <t>邮箱</t>
-  </si>
-  <si>
-    <t>弱口令、公共账号</t>
-  </si>
-  <si>
-    <t>管理员设置密码规则</t>
-  </si>
-  <si>
-    <t>从oa获取</t>
-  </si>
-  <si>
-    <t>代码资产</t>
-  </si>
-  <si>
-    <t>权限过大，git管理混乱、无有效期设置</t>
-  </si>
-  <si>
-    <t>权限审计、设置申请流程</t>
-  </si>
-  <si>
-    <t>git仓库按产品梳理分组</t>
-  </si>
-  <si>
-    <t>容器资产</t>
-  </si>
-  <si>
-    <t>K8S</t>
-  </si>
-  <si>
-    <t>权限过大，权限信息缺失，公共账号</t>
-  </si>
-  <si>
-    <t>权限管理表格</t>
-  </si>
-  <si>
-    <t>漏洞</t>
-  </si>
-  <si>
-    <t>漏洞跟进复测</t>
-  </si>
-  <si>
-    <t>漏洞提醒</t>
-  </si>
-  <si>
-    <t>禅道、SRC等</t>
-  </si>
-  <si>
-    <t>公司员工</t>
-  </si>
-  <si>
-    <t>员工</t>
-  </si>
-  <si>
-    <t>内鬼，安全意识</t>
-  </si>
-  <si>
-    <t>安全意识培训，法律科普，DLP等监控设备安装</t>
-  </si>
-  <si>
-    <t>全员培训</t>
-  </si>
-  <si>
-    <t>网络资产</t>
-  </si>
-  <si>
-    <t>生产网络</t>
-  </si>
-  <si>
-    <t>网络职能混淆混乱</t>
-  </si>
-  <si>
-    <t>测试网络</t>
-  </si>
-  <si>
-    <t>弱口令等网络接入控制</t>
-  </si>
-  <si>
-    <t>开发网络</t>
-  </si>
-  <si>
-    <t>ad域</t>
-  </si>
-  <si>
-    <t>办公网络</t>
-  </si>
-  <si>
-    <t>网络隔离问题</t>
-  </si>
-  <si>
-    <t>平台账号资产</t>
-  </si>
-  <si>
-    <t>微博，B站，知乎，微信</t>
   </si>
   <si>
     <t>开发组件，服务组件等工具类</t>
@@ -825,7 +754,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1001,12 +930,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1846,18 +1769,17 @@
   <sheetPr/>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="18.8888888888889" style="9" customWidth="1"/>
-    <col min="2" max="3" width="19.3333333333333" style="9" customWidth="1"/>
-    <col min="4" max="4" width="18.8888888888889" style="9" customWidth="1"/>
-    <col min="5" max="5" width="22.4537037037037" style="9" customWidth="1"/>
-    <col min="6" max="6" width="21.3611111111111" style="9" customWidth="1"/>
-    <col min="7" max="7" width="14.3611111111111" customWidth="1"/>
+    <col min="1" max="1" width="18.8909090909091" style="9" customWidth="1"/>
+    <col min="2" max="3" width="19.3363636363636" style="9" customWidth="1"/>
+    <col min="4" max="4" width="18.8909090909091" style="9" customWidth="1"/>
+    <col min="5" max="6" width="21.3636363636364" style="9" customWidth="1"/>
+    <col min="7" max="7" width="14.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:7">
@@ -1883,7 +1805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="216" spans="1:6">
+    <row r="2" customFormat="1" ht="81" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
@@ -1896,36 +1818,41 @@
       <c r="D2" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="E2" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="F2" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" ht="57.6" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" ht="56" spans="1:7">
       <c r="A3" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:6">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
+    <row r="8" ht="28" spans="4:4">
+      <c r="D8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="9"/>
+    </row>
+    <row r="9" spans="4:4">
+      <c r="D9" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="11"/>
@@ -1938,7 +1865,7 @@
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="4"/>
+      <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -1948,7 +1875,7 @@
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="4"/>
+      <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -1993,224 +1920,224 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="22.1851851851852" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1818181818182" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="18.5545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" ht="43.2" spans="1:3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" ht="42" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="7" ht="28.8" spans="1:3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" ht="28" spans="1:3">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3"/>
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3"/>
       <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="15" ht="28.8" spans="1:3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" ht="28" spans="1:3">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C15" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="18" ht="28.8" spans="1:3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" ht="28" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C18" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C23" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="29" ht="28.8" spans="1:3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29" ht="28" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C32" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2238,216 +2165,216 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="22.1851851851852" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.4444444444444" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.2222222222222" customWidth="1"/>
-    <col min="4" max="4" width="17.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="22.1818181818182" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.4454545454545" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.2181818181818" customWidth="1"/>
+    <col min="4" max="4" width="17.5545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3"/>
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3"/>
       <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C18" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C23" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D25" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2473,39 +2400,39 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="2"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -2520,15 +2447,15 @@
   <sheetPr/>
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelRow="5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -2538,22 +2465,22 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2571,16 +2498,16 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2594,41 +2521,41 @@
   <sheetPr/>
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="22.1851851851852" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.1818181818182" style="2" customWidth="1"/>
     <col min="2" max="3" width="19" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.5462962962963" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.5555555555556" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.2222222222222" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.8888888888889" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.73148148148148" style="1"/>
-    <col min="9" max="9" width="18.2222222222222" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.73148148148148" style="1"/>
+    <col min="4" max="4" width="21.5454545454545" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.5545454545455" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.2181818181818" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.8909090909091" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.72727272727273" style="1"/>
+    <col min="9" max="9" width="18.2181818181818" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.72727272727273" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8" spans="1:9">
+    <row r="1" ht="28" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
@@ -2636,240 +2563,240 @@
     </row>
     <row r="2" ht="76" customHeight="1" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="49" customHeight="1" spans="1:6">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" ht="43.2" spans="1:6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" ht="42" spans="1:6">
       <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" ht="28.8" spans="1:6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" ht="28" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" ht="28.8" spans="1:6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" ht="28" spans="1:6">
       <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" ht="43.2" spans="1:6">
+    </row>
+    <row r="9" ht="42" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" ht="28.8" spans="1:6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" ht="28" spans="1:6">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="36" customHeight="1" spans="1:9">
       <c r="A13" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="43.2" spans="1:9">
+    <row r="14" s="1" customFormat="1" ht="42" spans="1:9">
       <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="43.2" spans="1:9">
+    <row r="15" s="1" customFormat="1" ht="42" spans="1:9">
       <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" ht="43.2" spans="1:6">
+    <row r="16" ht="42" spans="1:6">
       <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="43.2" spans="1:9">
+    </row>
+    <row r="18" s="1" customFormat="1" ht="42" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:9">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I19" s="2"/>
     </row>
@@ -2882,137 +2809,137 @@
       <c r="F20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" ht="28.8" spans="1:6">
+    <row r="21" ht="28" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" ht="28.8" spans="1:5">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" ht="28" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" ht="28.8" spans="1:6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" ht="28" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="6:6">
       <c r="F28" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" ht="28.8" spans="1:5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" ht="28" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" ht="28.8" spans="1:4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" ht="28" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" ht="28.8" spans="1:1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" ht="28" spans="1:1">
       <c r="A40" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3037,11 +2964,11 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="18.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="17.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="17.7314814814815" customWidth="1"/>
+    <col min="1" max="1" width="18.5545454545455" customWidth="1"/>
+    <col min="2" max="2" width="17.1090909090909" customWidth="1"/>
+    <col min="3" max="3" width="17.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -3051,44 +2978,44 @@
     </row>
     <row r="2" spans="3:3">
       <c r="C2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3106,15 +3033,15 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="20.2222222222222" customWidth="1"/>
-    <col min="2" max="2" width="14.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="20.2181818181818" customWidth="1"/>
+    <col min="2" max="2" width="14.2181818181818" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3132,63 +3059,63 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.1851851851852" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.3611111111111" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.2222222222222" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1818181818182" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.3636363636364" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.2181818181818" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="2"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -3399,28 +3326,28 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.1851851851852" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.3611111111111" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.2222222222222" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1818181818182" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.3636363636364" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.2181818181818" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="2"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -3630,86 +3557,86 @@
   <sheetPr/>
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.1851851851852" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.3611111111111" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.2222222222222" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1818181818182" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.3636363636364" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.2181818181818" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="2"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" ht="28.8" spans="1:4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" ht="28" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="3"/>
     </row>
-    <row r="6" ht="28.8" spans="1:4">
+    <row r="6" ht="28" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -3717,10 +3644,10 @@
     <row r="8" s="1" customFormat="1" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3728,13 +3655,13 @@
     <row r="9" s="1" customFormat="1" spans="1:5">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -3747,95 +3674,95 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" ht="129.6" spans="1:5">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" ht="126" spans="1:5">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" s="7" customFormat="1"/>
     <row r="19" s="7" customFormat="1"/>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="22" ht="28.8" spans="1:3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" ht="28" spans="1:3">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="2:2">
@@ -3843,43 +3770,43 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -3893,24 +3820,24 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" ht="28.8" spans="1:4">
+    <row r="30" ht="28" spans="1:4">
       <c r="A30" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3919,16 +3846,16 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="3"/>
       <c r="B34" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="2:5">
@@ -3943,10 +3870,10 @@
     </row>
     <row r="37" s="1" customFormat="1" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -3958,10 +3885,10 @@
     </row>
     <row r="39" s="1" customFormat="1" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -3983,24 +3910,24 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B43" s="3"/>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B44" s="3"/>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/原创-基础安全/基础安全方案-持续更新.xlsx
+++ b/原创-基础安全/基础安全方案-持续更新.xlsx
@@ -4,28 +4,42 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930"/>
+    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="流程总览" sheetId="15" r:id="rId1"/>
-    <sheet name="基础资源" sheetId="17" r:id="rId2"/>
-    <sheet name="基础服务" sheetId="18" r:id="rId3"/>
-    <sheet name="资产梳理及安全管理" sheetId="11" r:id="rId4"/>
-    <sheet name="安全培训" sheetId="13" r:id="rId5"/>
-    <sheet name="安全需求" sheetId="12" r:id="rId6"/>
-    <sheet name="安全评估" sheetId="14" r:id="rId7"/>
-    <sheet name="安全开发环境" sheetId="16" r:id="rId8"/>
-    <sheet name="安全审计检查" sheetId="1" r:id="rId9"/>
-    <sheet name="安全加固与保护" sheetId="4" r:id="rId10"/>
-    <sheet name="感知审计监控" sheetId="5" r:id="rId11"/>
-    <sheet name="安全运营与管理" sheetId="3" r:id="rId12"/>
+    <sheet name="总览" sheetId="19" r:id="rId1"/>
+    <sheet name="流程总览" sheetId="15" r:id="rId2"/>
+    <sheet name="基础资源" sheetId="17" r:id="rId3"/>
+    <sheet name="基础服务" sheetId="18" r:id="rId4"/>
+    <sheet name="资产梳理及安全管理" sheetId="11" r:id="rId5"/>
+    <sheet name="安全培训" sheetId="13" r:id="rId6"/>
+    <sheet name="资产发现" sheetId="20" r:id="rId7"/>
+    <sheet name="安全需求" sheetId="12" r:id="rId8"/>
+    <sheet name="安全评估" sheetId="14" r:id="rId9"/>
+    <sheet name="安全开发环境" sheetId="16" r:id="rId10"/>
+    <sheet name="安全审计检查" sheetId="1" r:id="rId11"/>
+    <sheet name="安全加固与保护" sheetId="4" r:id="rId12"/>
+    <sheet name="感知审计监控" sheetId="5" r:id="rId13"/>
+    <sheet name="安全运营与管理" sheetId="3" r:id="rId14"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="249">
+  <si>
+    <t>资产生命周期</t>
+  </si>
+  <si>
+    <t>基础安全项</t>
+  </si>
+  <si>
+    <t>采购与部署</t>
+  </si>
+  <si>
+    <t>资产发现</t>
+  </si>
   <si>
     <t>分类</t>
   </si>
@@ -78,9 +92,18 @@
     <t>SDL系统应设置后台功能可添加功能模块或安全需求条目</t>
   </si>
   <si>
+    <t>数据库</t>
+  </si>
+  <si>
+    <t>管道</t>
+  </si>
+  <si>
     <t>jump批量对基线进行检查</t>
   </si>
   <si>
+    <t>硬件功能性设备</t>
+  </si>
+  <si>
     <t>公网映射管理</t>
   </si>
   <si>
@@ -231,9 +254,6 @@
     <t>数据资产</t>
   </si>
   <si>
-    <t>数据库</t>
-  </si>
-  <si>
     <t>归属及账号管理、外网、访问权限</t>
   </si>
   <si>
@@ -412,6 +432,18 @@
   </si>
   <si>
     <t>针对运维的培训</t>
+  </si>
+  <si>
+    <t>安全技术</t>
+  </si>
+  <si>
+    <t>安全运营</t>
+  </si>
+  <si>
+    <t>通过持续性扫描</t>
+  </si>
+  <si>
+    <t>通过接口获取</t>
   </si>
   <si>
     <t>见安全需求表</t>
@@ -1407,10 +1439,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1767,143 +1799,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="18.8909090909091" style="9" customWidth="1"/>
-    <col min="2" max="3" width="19.3363636363636" style="9" customWidth="1"/>
-    <col min="4" max="4" width="18.8909090909091" style="9" customWidth="1"/>
-    <col min="5" max="6" width="21.3636363636364" style="9" customWidth="1"/>
-    <col min="7" max="7" width="14.3636363636364" customWidth="1"/>
+    <col min="1" max="1" width="21.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="19.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:7">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" customFormat="1" ht="81" spans="1:6">
-      <c r="A2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" ht="56" spans="1:7">
-      <c r="A3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" ht="28" spans="4:4">
-      <c r="D8" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="4:4">
-      <c r="D9" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="4:4">
-      <c r="D11" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="1:8">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" s="1" customFormat="1" spans="1:8">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" s="1" customFormat="1" spans="1:8">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" s="1" customFormat="1" spans="1:8">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1912,6 +1834,634 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:H57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="22.1818181818182" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.3636363636364" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.2181818181818" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="2"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:5">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:5">
+      <c r="A19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:5">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" customFormat="1" spans="1:5">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" s="7" customFormat="1"/>
+    <row r="30" s="7" customFormat="1"/>
+    <row r="31" spans="1:2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="3"/>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="2:5">
+      <c r="B46" s="3"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="2:5">
+      <c r="B47" s="3"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="2:5">
+      <c r="B48" s="3"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="2:5">
+      <c r="B49" s="3"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="2:5">
+      <c r="B50" s="3"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="2:5">
+      <c r="B51" s="3"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="2:5">
+      <c r="B52" s="3"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="2:5">
+      <c r="B53" s="3"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" customFormat="1"/>
+    <row r="55" customFormat="1"/>
+    <row r="56" customFormat="1"/>
+    <row r="57" customFormat="1"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A44:A45"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="22.1818181818182" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.3636363636364" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.2181818181818" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="2"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" ht="28" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" ht="28" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:5">
+      <c r="A8" s="3"/>
+      <c r="B8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:5">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" customFormat="1" spans="1:5">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" ht="126" spans="1:5">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" s="7" customFormat="1"/>
+    <row r="19" s="7" customFormat="1"/>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" ht="28" spans="1:3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" ht="28" spans="1:4">
+      <c r="A30" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="3"/>
+      <c r="B34" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="2:5">
+      <c r="B35" s="3"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="2:5">
+      <c r="B36" s="3"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:5">
+      <c r="A37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="2:5">
+      <c r="B38" s="3"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="1:5">
+      <c r="A39" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="2:5">
+      <c r="B40" s="3"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="2:5">
+      <c r="B41" s="3"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="2:5">
+      <c r="B42" s="3"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>198</v>
+      </c>
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A33:A34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E32"/>
@@ -1929,215 +2479,215 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="D2" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" ht="42" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" ht="28" spans="1:3">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3"/>
       <c r="B10" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3"/>
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" ht="28" spans="1:3">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="C15" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" ht="28" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="C18" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C23" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" ht="28" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C29" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="C32" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -2156,7 +2706,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D29"/>
@@ -2175,206 +2725,206 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3"/>
       <c r="B10" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3"/>
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="C18" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="D21" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C23" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C25" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="D25" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C29" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -2391,7 +2941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B2:C8"/>
@@ -2404,35 +2954,35 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="C4" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -2443,6 +2993,164 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="18.8909090909091" style="8" customWidth="1"/>
+    <col min="2" max="3" width="19.3363636363636" style="8" customWidth="1"/>
+    <col min="4" max="4" width="18.8909090909091" style="8" customWidth="1"/>
+    <col min="5" max="6" width="21.3636363636364" style="8" customWidth="1"/>
+    <col min="7" max="7" width="14.3636363636364" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:7">
+      <c r="A1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="81" spans="1:6">
+      <c r="A2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" ht="56" spans="1:7">
+      <c r="A3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" ht="28" spans="3:4">
+      <c r="C8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
+      <c r="C9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:8">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:8">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:8">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="1:8">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A6"/>
@@ -2455,32 +3163,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2489,7 +3197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A2"/>
@@ -2502,12 +3210,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2516,12 +3224,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -2540,263 +3248,263 @@
   <sheetData>
     <row r="1" ht="28" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" ht="76" customHeight="1" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" ht="49" customHeight="1" spans="1:6">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" ht="42" spans="1:6">
       <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" ht="28" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" ht="28" spans="1:6">
       <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" ht="42" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" ht="28" spans="1:6">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="36" customHeight="1" spans="1:9">
       <c r="A13" s="4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I13" s="2"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="42" spans="1:9">
       <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="42" spans="1:9">
       <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" ht="42" spans="1:6">
       <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="42" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:9">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="I19" s="2"/>
     </row>
@@ -2811,135 +3519,135 @@
     </row>
     <row r="21" ht="28" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" ht="28" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>93</v>
+        <v>97</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" ht="28" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="6:6">
       <c r="F28" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" ht="28" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" ht="28" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" ht="28" spans="1:1">
       <c r="A40" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2955,7 +3663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C15"/>
@@ -2973,49 +3681,49 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="3:3">
       <c r="C2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3024,7 +3732,59 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="17.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="14.5454545454545" customWidth="1"/>
+    <col min="3" max="3" width="15.3636363636364" customWidth="1"/>
+    <col min="4" max="4" width="18.3636363636364" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A3"/>
@@ -3041,7 +3801,7 @@
   <sheetData>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3050,7 +3810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H57"/>
@@ -3070,52 +3830,52 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -3315,632 +4075,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A2:H57"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="22.1818181818182" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.3636363636364" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.2181818181818" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9" style="2"/>
-    <col min="6" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5"/>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:5">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:5">
-      <c r="A19" s="3"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:5">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" customFormat="1" spans="1:5">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" s="7" customFormat="1"/>
-    <row r="30" s="7" customFormat="1"/>
-    <row r="31" spans="1:2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="3"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="3"/>
-    </row>
-    <row r="46" s="1" customFormat="1" spans="2:5">
-      <c r="B46" s="3"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" s="1" customFormat="1" spans="2:5">
-      <c r="B47" s="3"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" s="1" customFormat="1" spans="2:5">
-      <c r="B48" s="3"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" s="1" customFormat="1" spans="2:5">
-      <c r="B49" s="3"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" s="1" customFormat="1" spans="2:5">
-      <c r="B50" s="3"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" s="1" customFormat="1" spans="2:5">
-      <c r="B51" s="3"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" s="1" customFormat="1" spans="2:5">
-      <c r="B52" s="3"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" s="1" customFormat="1" spans="2:5">
-      <c r="B53" s="3"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" customFormat="1"/>
-    <row r="55" customFormat="1"/>
-    <row r="56" customFormat="1"/>
-    <row r="57" customFormat="1"/>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A44:A45"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="22.1818181818182" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.3636363636364" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.2181818181818" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9" style="2"/>
-    <col min="6" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" ht="28" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" ht="28" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:5">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:5">
-      <c r="A8" s="3"/>
-      <c r="B8" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:5">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" customFormat="1" spans="1:5">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="15" ht="126" spans="1:5">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="18" s="7" customFormat="1"/>
-    <row r="19" s="7" customFormat="1"/>
-    <row r="20" spans="1:3">
-      <c r="A20" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" ht="28" spans="1:3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" ht="28" spans="1:4">
-      <c r="A30" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="2:5">
-      <c r="B35" s="3"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" s="1" customFormat="1" spans="2:5">
-      <c r="B36" s="3"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" s="1" customFormat="1" spans="1:5">
-      <c r="A37" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" s="1" customFormat="1" spans="2:5">
-      <c r="B38" s="3"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" s="1" customFormat="1" spans="1:5">
-      <c r="A39" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" s="1" customFormat="1" spans="2:5">
-      <c r="B40" s="3"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" s="1" customFormat="1" spans="2:5">
-      <c r="B41" s="3"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" s="1" customFormat="1" spans="2:5">
-      <c r="B42" s="3"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>188</v>
-      </c>
-      <c r="B44" s="3"/>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A33:A34"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/原创-基础安全/基础安全方案-持续更新.xlsx
+++ b/原创-基础安全/基础安全方案-持续更新.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" firstSheet="5" activeTab="6"/>
+    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="19" r:id="rId1"/>
-    <sheet name="流程总览" sheetId="15" r:id="rId2"/>
-    <sheet name="基础资源" sheetId="17" r:id="rId3"/>
-    <sheet name="基础服务" sheetId="18" r:id="rId4"/>
-    <sheet name="资产梳理及安全管理" sheetId="11" r:id="rId5"/>
-    <sheet name="安全培训" sheetId="13" r:id="rId6"/>
-    <sheet name="资产发现" sheetId="20" r:id="rId7"/>
+    <sheet name="资产发现" sheetId="20" r:id="rId2"/>
+    <sheet name="流程总览" sheetId="15" r:id="rId3"/>
+    <sheet name="基础资源" sheetId="17" r:id="rId4"/>
+    <sheet name="基础服务" sheetId="18" r:id="rId5"/>
+    <sheet name="资产梳理及安全管理" sheetId="11" r:id="rId6"/>
+    <sheet name="安全培训" sheetId="13" r:id="rId7"/>
     <sheet name="安全需求" sheetId="12" r:id="rId8"/>
     <sheet name="安全评估" sheetId="14" r:id="rId9"/>
     <sheet name="安全开发环境" sheetId="16" r:id="rId10"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="250">
   <si>
     <t>资产生命周期</t>
   </si>
@@ -41,21 +41,42 @@
     <t>资产发现</t>
   </si>
   <si>
+    <t>资产项</t>
+  </si>
+  <si>
+    <t>安全管理</t>
+  </si>
+  <si>
+    <t>系统支持</t>
+  </si>
+  <si>
+    <t>安全技术</t>
+  </si>
+  <si>
+    <t>安全运营</t>
+  </si>
+  <si>
+    <t>通过持续性扫描获取</t>
+  </si>
+  <si>
+    <t>权限管理</t>
+  </si>
+  <si>
+    <t>通过云服务接口获取</t>
+  </si>
+  <si>
+    <t>安全配置</t>
+  </si>
+  <si>
     <t>分类</t>
   </si>
   <si>
     <t>分类依据</t>
   </si>
   <si>
-    <t>资产项</t>
-  </si>
-  <si>
     <t>安全管理体系</t>
   </si>
   <si>
-    <t>系统支持</t>
-  </si>
-  <si>
     <t>技术体系</t>
   </si>
   <si>
@@ -389,9 +410,6 @@
     <t>微博，B站，知乎，微信</t>
   </si>
   <si>
-    <t>安全管理</t>
-  </si>
-  <si>
     <t>开发组件，服务组件等工具类</t>
   </si>
   <si>
@@ -434,18 +452,6 @@
     <t>针对运维的培训</t>
   </si>
   <si>
-    <t>安全技术</t>
-  </si>
-  <si>
-    <t>安全运营</t>
-  </si>
-  <si>
-    <t>通过持续性扫描</t>
-  </si>
-  <si>
-    <t>通过接口获取</t>
-  </si>
-  <si>
     <t>见安全需求表</t>
   </si>
   <si>
@@ -684,9 +690,6 @@
   </si>
   <si>
     <t>权限审计、授权设置、clone等敏感操作记录</t>
-  </si>
-  <si>
-    <t>安全配置</t>
   </si>
   <si>
     <t>尽快修复</t>
@@ -1439,10 +1442,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1801,8 +1804,8 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1853,17 +1856,17 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -2088,45 +2091,45 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" ht="28" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="2:2">
@@ -2134,25 +2137,25 @@
     </row>
     <row r="6" ht="28" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2160,10 +2163,10 @@
     <row r="8" s="1" customFormat="1" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2171,13 +2174,13 @@
     <row r="9" s="1" customFormat="1" spans="1:5">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -2190,95 +2193,95 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" ht="126" spans="1:5">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" s="7" customFormat="1"/>
     <row r="19" s="7" customFormat="1"/>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" ht="28" spans="1:3">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="2:2">
@@ -2286,43 +2289,43 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -2338,22 +2341,22 @@
     </row>
     <row r="30" ht="28" spans="1:4">
       <c r="A30" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2362,16 +2365,16 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="3"/>
       <c r="B34" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="2:5">
@@ -2386,10 +2389,10 @@
     </row>
     <row r="37" s="1" customFormat="1" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -2401,10 +2404,10 @@
     </row>
     <row r="39" s="1" customFormat="1" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -2426,24 +2429,24 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B43" s="3"/>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B44" s="3"/>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2479,215 +2482,215 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" ht="42" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" ht="28" spans="1:3">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3"/>
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3"/>
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" ht="28" spans="1:3">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C15" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" ht="28" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C18" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s">
-        <v>219</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" ht="28" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C29" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C32" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -2725,206 +2728,206 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3"/>
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3"/>
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C18" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C25" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D25" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C29" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -2954,35 +2957,35 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -2995,6 +2998,69 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="17.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="14.5454545454545" customWidth="1"/>
+    <col min="4" max="4" width="15.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="18.3636363636364" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="4:4">
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4">
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3003,94 +3069,94 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="18.8909090909091" style="8" customWidth="1"/>
-    <col min="2" max="3" width="19.3363636363636" style="8" customWidth="1"/>
-    <col min="4" max="4" width="18.8909090909091" style="8" customWidth="1"/>
-    <col min="5" max="6" width="21.3636363636364" style="8" customWidth="1"/>
+    <col min="1" max="1" width="18.8909090909091" style="9" customWidth="1"/>
+    <col min="2" max="3" width="19.3363636363636" style="9" customWidth="1"/>
+    <col min="4" max="4" width="18.8909090909091" style="9" customWidth="1"/>
+    <col min="5" max="6" width="21.3636363636364" style="9" customWidth="1"/>
     <col min="7" max="7" width="14.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:7">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>9</v>
+      <c r="F1" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="81" spans="1:6">
-      <c r="A2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>13</v>
+      <c r="A2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" ht="56" spans="1:7">
-      <c r="A3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>19</v>
+      <c r="A3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="8" t="s">
-        <v>21</v>
+      <c r="C7" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" ht="28" spans="3:4">
-      <c r="C8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>23</v>
+      <c r="C8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="3:4">
-      <c r="C9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>25</v>
+      <c r="C9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="8" t="s">
-        <v>26</v>
+      <c r="D11" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3110,10 +3176,10 @@
       <c r="H35" s="2"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:8">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -3150,7 +3216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A6"/>
@@ -3163,32 +3229,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3197,7 +3263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A2"/>
@@ -3210,12 +3276,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3224,7 +3290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I40"/>
@@ -3248,263 +3314,263 @@
   <sheetData>
     <row r="1" ht="28" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" ht="76" customHeight="1" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" ht="49" customHeight="1" spans="1:6">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" ht="42" spans="1:6">
       <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" ht="28" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" ht="28" spans="1:6">
       <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" ht="42" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" ht="28" spans="1:6">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="36" customHeight="1" spans="1:9">
       <c r="A13" s="4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I13" s="2"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="42" spans="1:9">
       <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="42" spans="1:9">
       <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" ht="42" spans="1:6">
       <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="42" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:9">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="I19" s="2"/>
     </row>
@@ -3519,135 +3585,135 @@
     </row>
     <row r="21" ht="28" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" ht="28" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>99</v>
+        <v>104</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" ht="28" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="6:6">
       <c r="F28" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" ht="28" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>120</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" ht="28" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" ht="28" spans="1:1">
       <c r="A40" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3663,7 +3729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C15"/>
@@ -3681,101 +3747,49 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="3:3">
       <c r="C2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C12" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="17.9090909090909" customWidth="1"/>
-    <col min="2" max="2" width="14.5454545454545" customWidth="1"/>
-    <col min="3" max="3" width="15.3636363636364" customWidth="1"/>
-    <col min="4" max="4" width="18.3636363636364" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="3:3">
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="3:3">
-      <c r="C3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="3:3">
-      <c r="C4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3801,7 +3815,7 @@
   <sheetData>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3830,52 +3844,52 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:1">

--- a/原创-基础安全/基础安全方案-持续更新.xlsx
+++ b/原创-基础安全/基础安全方案-持续更新.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="254">
   <si>
     <t>资产生命周期</t>
   </si>
@@ -41,6 +41,21 @@
     <t>资产发现</t>
   </si>
   <si>
+    <t>分配及使用</t>
+  </si>
+  <si>
+    <t>安全管理/审计/监控</t>
+  </si>
+  <si>
+    <t>对外暴露</t>
+  </si>
+  <si>
+    <t>安全配置</t>
+  </si>
+  <si>
+    <t>报废清算</t>
+  </si>
+  <si>
     <t>资产项</t>
   </si>
   <si>
@@ -63,9 +78,6 @@
   </si>
   <si>
     <t>通过云服务接口获取</t>
-  </si>
-  <si>
-    <t>安全配置</t>
   </si>
   <si>
     <t>分类</t>
@@ -1802,13 +1814,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="21.9090909090909" customWidth="1"/>
     <col min="2" max="2" width="19.4545454545455" customWidth="1"/>
@@ -1827,6 +1839,30 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1856,17 +1892,17 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -2091,45 +2127,45 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" ht="28" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="2:2">
@@ -2137,25 +2173,25 @@
     </row>
     <row r="6" ht="28" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2163,10 +2199,10 @@
     <row r="8" s="1" customFormat="1" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2174,13 +2210,13 @@
     <row r="9" s="1" customFormat="1" spans="1:5">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -2193,95 +2229,95 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" ht="126" spans="1:5">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" s="7" customFormat="1"/>
     <row r="19" s="7" customFormat="1"/>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" ht="28" spans="1:3">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="2:2">
@@ -2289,43 +2325,43 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -2341,22 +2377,22 @@
     </row>
     <row r="30" ht="28" spans="1:4">
       <c r="A30" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2365,16 +2401,16 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="3"/>
       <c r="B34" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="2:5">
@@ -2389,10 +2425,10 @@
     </row>
     <row r="37" s="1" customFormat="1" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -2404,10 +2440,10 @@
     </row>
     <row r="39" s="1" customFormat="1" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -2429,24 +2465,24 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B43" s="3"/>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B44" s="3"/>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2482,215 +2518,215 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" ht="42" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" ht="28" spans="1:3">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3"/>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3"/>
       <c r="B11" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" ht="28" spans="1:3">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C15" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" ht="28" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C18" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C21" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C27" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" ht="28" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C29" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C32" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2728,206 +2764,206 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3"/>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3"/>
       <c r="B11" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C18" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C21" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D21" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C25" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D25" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C27" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C29" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2957,35 +2993,35 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C4" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -3014,19 +3050,19 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:5">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="4:4">
@@ -3036,20 +3072,20 @@
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3078,85 +3114,85 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="81" spans="1:6">
       <c r="A2" s="9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" ht="56" spans="1:7">
       <c r="A3" s="9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" s="9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" ht="28" spans="3:4">
       <c r="C8" s="9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="3:4">
       <c r="C9" s="9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" s="9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3229,32 +3265,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3276,12 +3312,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3314,263 +3350,263 @@
   <sheetData>
     <row r="1" ht="28" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" ht="76" customHeight="1" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" ht="49" customHeight="1" spans="1:6">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" ht="42" spans="1:6">
       <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" ht="28" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" ht="28" spans="1:6">
       <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" ht="42" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" ht="28" spans="1:6">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="36" customHeight="1" spans="1:9">
       <c r="A13" s="4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I13" s="2"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="42" spans="1:9">
       <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="42" spans="1:9">
       <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" ht="42" spans="1:6">
       <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="42" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:9">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I19" s="2"/>
     </row>
@@ -3585,135 +3621,135 @@
     </row>
     <row r="21" ht="28" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" ht="28" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" ht="28" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="6:6">
       <c r="F28" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" ht="28" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" ht="28" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" ht="28" spans="1:1">
       <c r="A40" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3747,49 +3783,49 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="3:3">
       <c r="C2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3815,7 +3851,7 @@
   <sheetData>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3844,52 +3880,52 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:1">

--- a/原创-基础安全/基础安全方案-持续更新.xlsx
+++ b/原创-基础安全/基础安全方案-持续更新.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930"/>
+    <workbookView windowWidth="23040" windowHeight="9300" tabRatio="930" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="19" r:id="rId1"/>
     <sheet name="资产发现" sheetId="20" r:id="rId2"/>
-    <sheet name="流程总览" sheetId="15" r:id="rId3"/>
+    <sheet name="安全管理" sheetId="15" r:id="rId3"/>
     <sheet name="基础资源" sheetId="17" r:id="rId4"/>
     <sheet name="基础服务" sheetId="18" r:id="rId5"/>
     <sheet name="资产梳理及安全管理" sheetId="11" r:id="rId6"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="259">
   <si>
     <t>资产生命周期</t>
   </si>
@@ -71,15 +71,42 @@
     <t>安全运营</t>
   </si>
   <si>
+    <t>主机</t>
+  </si>
+  <si>
+    <t>域名</t>
+  </si>
+  <si>
     <t>通过持续性扫描获取</t>
   </si>
   <si>
+    <t>IP</t>
+  </si>
+  <si>
     <t>权限管理</t>
   </si>
   <si>
     <t>通过云服务接口获取</t>
   </si>
   <si>
+    <t>OSS服务</t>
+  </si>
+  <si>
+    <t>mysql</t>
+  </si>
+  <si>
+    <t>办公网络</t>
+  </si>
+  <si>
+    <t>测试网络</t>
+  </si>
+  <si>
+    <t>生产网络</t>
+  </si>
+  <si>
+    <t>DMZ</t>
+  </si>
+  <si>
     <t>分类</t>
   </si>
   <si>
@@ -104,7 +131,7 @@
     <t>服务器</t>
   </si>
   <si>
-    <t>服务器/k8s申请，应当有申请系统，申请人在申请系统向运维提出权限申请，各级审批后，运维可进行权限分配。</t>
+    <t>主机安全规定</t>
   </si>
   <si>
     <t>如果有项目系统之类的东西，需要设置规则将安全默认加入每个项目中。系统按节点给安全发通知。</t>
@@ -152,9 +179,6 @@
     <t>验证码短信资源</t>
   </si>
   <si>
-    <t>域名</t>
-  </si>
-  <si>
     <t>OSS</t>
   </si>
   <si>
@@ -392,15 +416,9 @@
     <t>网络资产</t>
   </si>
   <si>
-    <t>生产网络</t>
-  </si>
-  <si>
     <t>网络职能混淆混乱</t>
   </si>
   <si>
-    <t>测试网络</t>
-  </si>
-  <si>
     <t>弱口令等网络接入控制</t>
   </si>
   <si>
@@ -408,9 +426,6 @@
   </si>
   <si>
     <t>ad域</t>
-  </si>
-  <si>
-    <t>办公网络</t>
   </si>
   <si>
     <t>网络隔离问题</t>
@@ -1816,14 +1831,14 @@
   <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="21.9090909090909" customWidth="1"/>
-    <col min="2" max="2" width="19.4545454545455" customWidth="1"/>
+    <col min="1" max="1" width="21.9074074074074" customWidth="1"/>
+    <col min="2" max="2" width="19.4537037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1881,28 +1896,28 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.1818181818182" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.3636363636364" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.2181818181818" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1851851851852" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.3611111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.2222222222222" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="2"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -2116,82 +2131,82 @@
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.1818181818182" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.3636363636364" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.2181818181818" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1851851851852" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.3611111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.2222222222222" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="2"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" ht="28" spans="1:4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" ht="28.8" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="3"/>
     </row>
-    <row r="6" ht="28" spans="1:4">
+    <row r="6" ht="28.8" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2199,10 +2214,10 @@
     <row r="8" s="1" customFormat="1" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2210,13 +2225,13 @@
     <row r="9" s="1" customFormat="1" spans="1:5">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -2229,95 +2244,95 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" ht="126" spans="1:5">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" ht="129.6" spans="1:5">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" s="7" customFormat="1"/>
     <row r="19" s="7" customFormat="1"/>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="22" ht="28" spans="1:3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" ht="28.8" spans="1:3">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="2:2">
@@ -2325,43 +2340,43 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -2375,24 +2390,24 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" ht="28" spans="1:4">
+    <row r="30" ht="28.8" spans="1:4">
       <c r="A30" s="3" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2401,16 +2416,16 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="3"/>
       <c r="B34" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="2:5">
@@ -2425,10 +2440,10 @@
     </row>
     <row r="37" s="1" customFormat="1" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -2440,10 +2455,10 @@
     </row>
     <row r="39" s="1" customFormat="1" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -2465,24 +2480,24 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B43" s="3"/>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B44" s="3"/>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -2509,180 +2524,180 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="22.1818181818182" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1851851851852" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5545454545455" customWidth="1"/>
+    <col min="3" max="3" width="18.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" ht="42" spans="1:3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" ht="43.2" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" ht="28" spans="1:3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" ht="28.8" spans="1:3">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3"/>
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3"/>
       <c r="B11" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="15" ht="28" spans="1:3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" ht="28.8" spans="1:3">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C15" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C16" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="18" ht="28" spans="1:3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" ht="28.8" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C18" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C19" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C21" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
@@ -2690,43 +2705,43 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C27" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="29" ht="28" spans="1:3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29" ht="28.8" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C29" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C32" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -2754,216 +2769,216 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="22.1818181818182" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.4454545454545" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.2181818181818" customWidth="1"/>
-    <col min="4" max="4" width="17.5545454545455" customWidth="1"/>
+    <col min="1" max="1" width="22.1851851851852" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.4444444444444" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="17.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3"/>
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3"/>
       <c r="B11" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C16" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C18" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C19" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C21" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D21" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C23" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C25" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D25" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C27" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C29" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -2989,39 +3004,39 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="2"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C4" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3034,18 +3049,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="17.9090909090909" customWidth="1"/>
-    <col min="3" max="3" width="14.5454545454545" customWidth="1"/>
-    <col min="4" max="4" width="15.3636363636364" customWidth="1"/>
-    <col min="5" max="5" width="18.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="17.9074074074074" customWidth="1"/>
+    <col min="3" max="3" width="14.5462962962963" customWidth="1"/>
+    <col min="4" max="4" width="15.3611111111111" customWidth="1"/>
+    <col min="5" max="5" width="18.3611111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:5">
@@ -3065,27 +3080,64 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="4:4">
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="4:4">
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
       <c r="D3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
       <c r="B5" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -3099,100 +3151,100 @@
   <sheetPr/>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="18.8909090909091" style="9" customWidth="1"/>
-    <col min="2" max="3" width="19.3363636363636" style="9" customWidth="1"/>
-    <col min="4" max="4" width="18.8909090909091" style="9" customWidth="1"/>
-    <col min="5" max="6" width="21.3636363636364" style="9" customWidth="1"/>
-    <col min="7" max="7" width="14.3636363636364" customWidth="1"/>
+    <col min="1" max="1" width="18.8888888888889" style="9" customWidth="1"/>
+    <col min="2" max="3" width="19.3333333333333" style="9" customWidth="1"/>
+    <col min="4" max="4" width="18.8888888888889" style="9" customWidth="1"/>
+    <col min="5" max="6" width="21.3611111111111" style="9" customWidth="1"/>
+    <col min="7" max="7" width="14.3611111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" customFormat="1" ht="81" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="72" spans="1:6">
       <c r="A2" s="9" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" ht="56" spans="1:7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" ht="57.6" spans="1:7">
       <c r="A3" s="9" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" ht="28" spans="3:4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" ht="28.8" spans="3:4">
       <c r="C8" s="9" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="3:4">
       <c r="C9" s="9" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" s="9" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3261,36 +3313,36 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3308,16 +3360,16 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -3332,281 +3384,281 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.1818181818182" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.1851851851852" style="2" customWidth="1"/>
     <col min="2" max="3" width="19" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.5454545454545" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.5545454545455" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.2181818181818" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.8909090909091" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.72727272727273" style="1"/>
-    <col min="9" max="9" width="18.2181818181818" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.72727272727273" style="1"/>
+    <col min="4" max="4" width="21.5462962962963" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.5555555555556" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.2222222222222" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.8888888888889" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.73148148148148" style="1"/>
+    <col min="9" max="9" width="18.2222222222222" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.73148148148148" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" spans="1:9">
+    <row r="1" ht="28.8" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" ht="76" customHeight="1" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" ht="49" customHeight="1" spans="1:6">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" ht="42" spans="1:6">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" ht="43.2" spans="1:6">
       <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" ht="28" spans="1:6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" ht="28.8" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" ht="28" spans="1:6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" ht="28.8" spans="1:6">
       <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" ht="42" spans="1:6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" ht="43.2" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" ht="28" spans="1:6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" ht="28.8" spans="1:6">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="36" customHeight="1" spans="1:9">
       <c r="A13" s="4" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="42" spans="1:9">
+    <row r="14" s="1" customFormat="1" ht="43.2" spans="1:9">
       <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="42" spans="1:9">
+    <row r="15" s="1" customFormat="1" ht="43.2" spans="1:9">
       <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" ht="42" spans="1:6">
+    <row r="16" ht="43.2" spans="1:6">
       <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="42" spans="1:9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="43.2" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:9">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="I19" s="2"/>
     </row>
@@ -3619,137 +3671,137 @@
       <c r="F20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" ht="28" spans="1:6">
+    <row r="21" ht="28.8" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" ht="28" spans="1:5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" ht="28.8" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" ht="28" spans="1:6">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" ht="28.8" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="6:6">
       <c r="F28" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="2" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="2" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" ht="28" spans="1:5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" ht="28.8" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" ht="28" spans="1:4">
+    <row r="37" ht="28.8" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="40" ht="28" spans="1:1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" ht="28.8" spans="1:1">
       <c r="A40" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3774,58 +3826,58 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="18.5545454545455" customWidth="1"/>
-    <col min="2" max="2" width="17.1090909090909" customWidth="1"/>
-    <col min="3" max="3" width="17.7272727272727" customWidth="1"/>
+    <col min="1" max="1" width="18.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="17.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="17.7314814814815" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="3:3">
       <c r="C2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C12" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3843,15 +3895,15 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="20.2181818181818" customWidth="1"/>
-    <col min="2" max="2" width="14.2181818181818" customWidth="1"/>
+    <col min="1" max="1" width="20.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="14.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3869,63 +3921,63 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.1818181818182" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.3636363636364" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.2181818181818" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1851851851852" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.3611111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.2222222222222" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="2"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:1">

--- a/原创-基础安全/基础安全方案-持续更新.xlsx
+++ b/原创-基础安全/基础安全方案-持续更新.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300" tabRatio="930" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="19" r:id="rId1"/>
@@ -56,63 +56,66 @@
     <t>报废清算</t>
   </si>
   <si>
+    <t>资产类型</t>
+  </si>
+  <si>
+    <t>安全管理</t>
+  </si>
+  <si>
+    <t>系统支持</t>
+  </si>
+  <si>
+    <t>安全技术</t>
+  </si>
+  <si>
+    <t>安全运营</t>
+  </si>
+  <si>
+    <t>主机</t>
+  </si>
+  <si>
+    <t>域名</t>
+  </si>
+  <si>
+    <t>通过持续性扫描获取</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>权限管理</t>
+  </si>
+  <si>
+    <t>通过云服务接口获取</t>
+  </si>
+  <si>
+    <t>OSS服务</t>
+  </si>
+  <si>
+    <t>mysql</t>
+  </si>
+  <si>
+    <t>办公网络</t>
+  </si>
+  <si>
+    <t>测试网络</t>
+  </si>
+  <si>
+    <t>生产网络</t>
+  </si>
+  <si>
+    <t>DMZ</t>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>分类依据</t>
+  </si>
+  <si>
     <t>资产项</t>
   </si>
   <si>
-    <t>安全管理</t>
-  </si>
-  <si>
-    <t>系统支持</t>
-  </si>
-  <si>
-    <t>安全技术</t>
-  </si>
-  <si>
-    <t>安全运营</t>
-  </si>
-  <si>
-    <t>主机</t>
-  </si>
-  <si>
-    <t>域名</t>
-  </si>
-  <si>
-    <t>通过持续性扫描获取</t>
-  </si>
-  <si>
-    <t>IP</t>
-  </si>
-  <si>
-    <t>权限管理</t>
-  </si>
-  <si>
-    <t>通过云服务接口获取</t>
-  </si>
-  <si>
-    <t>OSS服务</t>
-  </si>
-  <si>
-    <t>mysql</t>
-  </si>
-  <si>
-    <t>办公网络</t>
-  </si>
-  <si>
-    <t>测试网络</t>
-  </si>
-  <si>
-    <t>生产网络</t>
-  </si>
-  <si>
-    <t>DMZ</t>
-  </si>
-  <si>
-    <t>分类</t>
-  </si>
-  <si>
-    <t>分类依据</t>
-  </si>
-  <si>
     <t>安全管理体系</t>
   </si>
   <si>
@@ -189,9 +192,6 @@
   </si>
   <si>
     <t>资产梳理</t>
-  </si>
-  <si>
-    <t>资产类型</t>
   </si>
   <si>
     <t>是否存在</t>
@@ -1835,10 +1835,10 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="21.9074074074074" customWidth="1"/>
-    <col min="2" max="2" width="19.4537037037037" customWidth="1"/>
+    <col min="1" max="1" width="21.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="19.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1896,11 +1896,11 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.1851851851852" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.3611111111111" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.2222222222222" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1818181818182" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.3636363636364" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.2181818181818" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="2"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -2131,11 +2131,11 @@
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.1851851851852" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.3611111111111" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.2222222222222" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1818181818182" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.3636363636364" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.2181818181818" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="2"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -2151,7 +2151,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" ht="28.8" spans="1:4">
+    <row r="2" ht="28" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>59</v>
       </c>
@@ -2186,7 +2186,7 @@
     <row r="5" spans="2:2">
       <c r="B5" s="3"/>
     </row>
-    <row r="6" ht="28.8" spans="1:4">
+    <row r="6" ht="28" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>74</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" ht="129.6" spans="1:5">
+    <row r="15" ht="126" spans="1:5">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>189</v>
@@ -2326,7 +2326,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" ht="28.8" spans="1:3">
+    <row r="22" ht="28" spans="1:3">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
         <v>198</v>
@@ -2390,7 +2390,7 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" ht="28.8" spans="1:4">
+    <row r="30" ht="28" spans="1:4">
       <c r="A30" s="3" t="s">
         <v>111</v>
       </c>
@@ -2524,19 +2524,19 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="22.1851851851852" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1818181818182" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="18.5545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>212</v>
@@ -2547,7 +2547,7 @@
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
         <v>213</v>
@@ -2565,7 +2565,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" ht="43.2" spans="1:3">
+    <row r="4" ht="42" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
         <v>70</v>
@@ -2585,7 +2585,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="7" ht="28.8" spans="1:3">
+    <row r="7" ht="28" spans="1:3">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
         <v>79</v>
@@ -2628,7 +2628,7 @@
         <v>93</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
         <v>221</v>
@@ -2643,7 +2643,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="15" ht="28.8" spans="1:3">
+    <row r="15" ht="28" spans="1:3">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
         <v>223</v>
@@ -2661,7 +2661,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="18" ht="28.8" spans="1:3">
+    <row r="18" ht="28" spans="1:3">
       <c r="A18" s="3" t="s">
         <v>103</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="29" ht="28.8" spans="1:3">
+    <row r="29" ht="28" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>134</v>
       </c>
@@ -2769,20 +2769,20 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="22.1851851851852" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.4444444444444" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.2222222222222" customWidth="1"/>
-    <col min="4" max="4" width="17.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="22.1818181818182" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.4454545454545" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.2181818181818" customWidth="1"/>
+    <col min="4" max="4" width="17.5545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>234</v>
@@ -2793,7 +2793,7 @@
         <v>59</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
         <v>235</v>
@@ -2867,7 +2867,7 @@
         <v>93</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
         <v>243</v>
@@ -3004,7 +3004,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="2"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
@@ -3051,16 +3051,16 @@
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="17.9074074074074" customWidth="1"/>
-    <col min="3" max="3" width="14.5462962962963" customWidth="1"/>
-    <col min="4" max="4" width="15.3611111111111" customWidth="1"/>
-    <col min="5" max="5" width="18.3611111111111" customWidth="1"/>
+    <col min="2" max="2" width="17.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="14.5454545454545" customWidth="1"/>
+    <col min="4" max="4" width="15.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="18.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:5">
@@ -3151,17 +3151,17 @@
   <sheetPr/>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="18.8888888888889" style="9" customWidth="1"/>
-    <col min="2" max="3" width="19.3333333333333" style="9" customWidth="1"/>
-    <col min="4" max="4" width="18.8888888888889" style="9" customWidth="1"/>
-    <col min="5" max="6" width="21.3611111111111" style="9" customWidth="1"/>
-    <col min="7" max="7" width="14.3611111111111" customWidth="1"/>
+    <col min="1" max="1" width="18.8909090909091" style="9" customWidth="1"/>
+    <col min="2" max="3" width="19.3363636363636" style="9" customWidth="1"/>
+    <col min="4" max="4" width="18.8909090909091" style="9" customWidth="1"/>
+    <col min="5" max="6" width="21.3636363636364" style="9" customWidth="1"/>
+    <col min="7" max="7" width="14.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:7">
@@ -3172,79 +3172,79 @@
         <v>27</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" customFormat="1" ht="72" spans="1:6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="70" spans="1:6">
       <c r="A2" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" ht="57.6" spans="1:7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" ht="56" spans="1:7">
       <c r="A3" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" ht="28.8" spans="3:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" ht="28" spans="3:4">
       <c r="C8" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="3:4">
       <c r="C9" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3313,26 +3313,26 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelRow="5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -3342,7 +3342,7 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3360,16 +3360,16 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -3387,25 +3387,25 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="22.1851851851852" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.1818181818182" style="2" customWidth="1"/>
     <col min="2" max="3" width="19" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.5462962962963" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.5555555555556" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.2222222222222" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.8888888888889" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.73148148148148" style="1"/>
-    <col min="9" max="9" width="18.2222222222222" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.73148148148148" style="1"/>
+    <col min="4" max="4" width="21.5454545454545" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.5545454545455" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.2181818181818" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.8909090909091" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.72727272727273" style="1"/>
+    <col min="9" max="9" width="18.2181818181818" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.72727272727273" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8" spans="1:9">
+    <row r="1" ht="28" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>55</v>
@@ -3420,7 +3420,7 @@
         <v>58</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" ht="76" customHeight="1" spans="1:9">
@@ -3428,7 +3428,7 @@
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>60</v>
@@ -3464,7 +3464,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" ht="43.2" spans="1:6">
+    <row r="4" ht="42" spans="1:6">
       <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
         <v>70</v>
@@ -3479,7 +3479,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" ht="28.8" spans="1:6">
+    <row r="6" ht="28" spans="1:6">
       <c r="A6" s="4" t="s">
         <v>74</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" ht="28.8" spans="1:6">
+    <row r="7" ht="28" spans="1:6">
       <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
         <v>79</v>
@@ -3511,7 +3511,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" ht="43.2" spans="1:6">
+    <row r="9" ht="42" spans="1:6">
       <c r="A9" s="4" t="s">
         <v>82</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" ht="28.8" spans="1:6">
+    <row r="10" ht="28" spans="1:6">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>87</v>
@@ -3563,7 +3563,7 @@
         <v>93</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="43.2" spans="1:9">
+    <row r="14" s="1" customFormat="1" ht="42" spans="1:9">
       <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
         <v>97</v>
@@ -3594,7 +3594,7 @@
       </c>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="43.2" spans="1:9">
+    <row r="15" s="1" customFormat="1" ht="42" spans="1:9">
       <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
         <v>101</v>
@@ -3611,7 +3611,7 @@
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" ht="43.2" spans="1:6">
+    <row r="16" ht="42" spans="1:6">
       <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
         <v>102</v>
@@ -3626,7 +3626,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="43.2" spans="1:9">
+    <row r="18" s="1" customFormat="1" ht="42" spans="1:9">
       <c r="A18" s="4" t="s">
         <v>103</v>
       </c>
@@ -3671,7 +3671,7 @@
       <c r="F20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" ht="28.8" spans="1:6">
+    <row r="21" ht="28" spans="1:6">
       <c r="A21" s="2" t="s">
         <v>111</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" ht="28.8" spans="1:5">
+    <row r="23" ht="28" spans="1:5">
       <c r="A23" s="2" t="s">
         <v>115</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" ht="28.8" spans="1:6">
+    <row r="27" ht="28" spans="1:6">
       <c r="A27" s="2" t="s">
         <v>123</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" ht="28.8" spans="1:5">
+    <row r="35" ht="28" spans="1:5">
       <c r="A35" s="2" t="s">
         <v>134</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" ht="28.8" spans="1:4">
+    <row r="37" ht="28" spans="1:4">
       <c r="A37" s="2" t="s">
         <v>136</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="40" ht="28.8" spans="1:1">
+    <row r="40" ht="28" spans="1:1">
       <c r="A40" s="2" t="s">
         <v>139</v>
       </c>
@@ -3826,11 +3826,11 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="18.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="17.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="17.7314814814815" customWidth="1"/>
+    <col min="1" max="1" width="18.5545454545455" customWidth="1"/>
+    <col min="2" max="2" width="17.1090909090909" customWidth="1"/>
+    <col min="3" max="3" width="17.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -3895,10 +3895,10 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="20.2222222222222" customWidth="1"/>
-    <col min="2" max="2" width="14.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="20.2181818181818" customWidth="1"/>
+    <col min="2" max="2" width="14.2181818181818" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:1">
@@ -3921,11 +3921,11 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.1851851851852" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.3611111111111" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.2222222222222" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1818181818182" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.3636363636364" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.2181818181818" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="2"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>

--- a/原创-基础安全/基础安全方案-持续更新.xlsx
+++ b/原创-基础安全/基础安全方案-持续更新.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="19" r:id="rId1"/>
     <sheet name="资产发现" sheetId="20" r:id="rId2"/>
-    <sheet name="安全管理" sheetId="15" r:id="rId3"/>
-    <sheet name="基础资源" sheetId="17" r:id="rId4"/>
-    <sheet name="基础服务" sheetId="18" r:id="rId5"/>
-    <sheet name="资产梳理及安全管理" sheetId="11" r:id="rId6"/>
+    <sheet name="没有这一sheet，安全管理融入到别的地方" sheetId="15" r:id="rId3"/>
+    <sheet name="资产梳理及安全管理" sheetId="11" r:id="rId4"/>
+    <sheet name="基础资源" sheetId="17" r:id="rId5"/>
+    <sheet name="基础服务" sheetId="18" r:id="rId6"/>
     <sheet name="安全培训" sheetId="13" r:id="rId7"/>
     <sheet name="安全需求" sheetId="12" r:id="rId8"/>
     <sheet name="安全评估" sheetId="14" r:id="rId9"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="263">
   <si>
     <t>资产生命周期</t>
   </si>
@@ -44,7 +44,19 @@
     <t>分配及使用</t>
   </si>
   <si>
-    <t>安全管理/审计/监控</t>
+    <t>安全管理</t>
+  </si>
+  <si>
+    <t>安全审计</t>
+  </si>
+  <si>
+    <t>安全监控</t>
+  </si>
+  <si>
+    <t>安全加固</t>
+  </si>
+  <si>
+    <t>安全培训</t>
   </si>
   <si>
     <t>对外暴露</t>
@@ -59,7 +71,7 @@
     <t>资产类型</t>
   </si>
   <si>
-    <t>安全管理</t>
+    <t>管理安全</t>
   </si>
   <si>
     <t>系统支持</t>
@@ -74,114 +86,372 @@
     <t>主机</t>
   </si>
   <si>
+    <t>废弃回收及销毁管理</t>
+  </si>
+  <si>
+    <t>子域名</t>
+  </si>
+  <si>
+    <t>通过持续性扫描获取</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>权限管理</t>
+  </si>
+  <si>
+    <t>通过云服务接口获取</t>
+  </si>
+  <si>
+    <t>OSS服务</t>
+  </si>
+  <si>
+    <t>数据库</t>
+  </si>
+  <si>
+    <t>办公网络</t>
+  </si>
+  <si>
+    <t>测试网络</t>
+  </si>
+  <si>
+    <t>生产网络</t>
+  </si>
+  <si>
+    <t>DMZ</t>
+  </si>
+  <si>
+    <t>短信资源</t>
+  </si>
+  <si>
+    <t>HTTPS证书</t>
+  </si>
+  <si>
+    <t>一级域名</t>
+  </si>
+  <si>
+    <t>docker，image，node</t>
+  </si>
+  <si>
+    <t>其他云服务</t>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>分类依据</t>
+  </si>
+  <si>
+    <t>资产项</t>
+  </si>
+  <si>
+    <t>安全管理体系</t>
+  </si>
+  <si>
+    <t>技术体系</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>基础资源</t>
+  </si>
+  <si>
+    <t>服务器</t>
+  </si>
+  <si>
+    <t>主机安全规定</t>
+  </si>
+  <si>
+    <t>如果有项目系统之类的东西，需要设置规则将安全默认加入每个项目中。系统按节点给安全发通知。</t>
+  </si>
+  <si>
+    <t>资产发现。</t>
+  </si>
+  <si>
+    <t>基础服务</t>
+  </si>
+  <si>
+    <t>可建设SDL系统，内置常见功能项，让开发选择，选择后自动生成需求表给开发。</t>
+  </si>
+  <si>
+    <t>SDL系统应设置后台功能可添加功能模块或安全需求条目</t>
+  </si>
+  <si>
+    <t>管道</t>
+  </si>
+  <si>
+    <t>jump批量对基线进行检查</t>
+  </si>
+  <si>
+    <t>硬件功能性设备</t>
+  </si>
+  <si>
+    <t>公网映射管理</t>
+  </si>
+  <si>
+    <t>端口开发管理</t>
+  </si>
+  <si>
+    <t>资产梳理</t>
+  </si>
+  <si>
+    <t>是否存在</t>
+  </si>
+  <si>
+    <t>安全管理问题，权限管理要重点关注</t>
+  </si>
+  <si>
+    <t>管理方案</t>
+  </si>
+  <si>
+    <t>梳理方法</t>
+  </si>
+  <si>
+    <t>IP类</t>
+  </si>
+  <si>
+    <t>归属部门、归属项目、所在位置、登录权限、敏感服务、网段网络隔离、数据库与应用的用途隔离等</t>
+  </si>
+  <si>
+    <t>jumpserver，服务器备案，敏感服务划分及扫描，网络隔离</t>
+  </si>
+  <si>
+    <t>云服务器可使用官方接口获取入库，IDC服务器可使用网段扫描，办公室可手动统计</t>
+  </si>
+  <si>
+    <t>K8S自带隔离及管理</t>
+  </si>
+  <si>
+    <t>归属部门、归属项目、所在位置、使用状态、绑定机器</t>
+  </si>
+  <si>
+    <t>备案</t>
+  </si>
+  <si>
+    <t>使用接口获取入库</t>
+  </si>
+  <si>
+    <t>网络管理</t>
+  </si>
+  <si>
+    <t>AD域</t>
+  </si>
+  <si>
+    <t>手动统计</t>
+  </si>
+  <si>
+    <t>域名类</t>
+  </si>
+  <si>
+    <t>公司域名</t>
+  </si>
+  <si>
+    <t>域名续费及证书、所属项目</t>
+  </si>
+  <si>
+    <t>过期监控、域名备案</t>
+  </si>
+  <si>
+    <t>使用接口入库</t>
+  </si>
+  <si>
+    <t>CDN、waf、K8S等云服务</t>
+  </si>
+  <si>
+    <t>续费、归属、域名解析等</t>
+  </si>
+  <si>
+    <t>过期监控、服务备案</t>
+  </si>
+  <si>
+    <t>应用资产</t>
+  </si>
+  <si>
+    <t>web系统</t>
+  </si>
+  <si>
+    <t>归属部门、归属项目、。后台类系统的公共账号</t>
+  </si>
+  <si>
+    <t>域名备案、系统不允许存在公共账号</t>
+  </si>
+  <si>
+    <t>对应域名入库</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>渠道上架账号，用户协议合规等合规类规定</t>
+  </si>
+  <si>
+    <t>限制接触范围</t>
+  </si>
+  <si>
+    <t>对应域名入库、从各平台商店获取</t>
+  </si>
+  <si>
+    <t>小程序、公众号等</t>
+  </si>
+  <si>
+    <t>渠道上架账号</t>
+  </si>
+  <si>
+    <t>数据资产</t>
+  </si>
+  <si>
+    <t>归属及账号管理、外网、访问权限</t>
+  </si>
+  <si>
+    <t>备案、网络隔离、权限隔离</t>
+  </si>
+  <si>
+    <t>敏感服务扫描，云服务备案</t>
+  </si>
+  <si>
+    <t>日志中心</t>
+  </si>
+  <si>
+    <t>账号管理、外网、访问权限、敏感信息</t>
+  </si>
+  <si>
+    <t>备案、网络隔离、权限隔离、不收录敏感信息</t>
+  </si>
+  <si>
+    <t>手动统计、域名备案</t>
+  </si>
+  <si>
+    <t>数据平台/大数据</t>
+  </si>
+  <si>
+    <t>mq等队列</t>
+  </si>
+  <si>
+    <t>第三方系统或服务</t>
+  </si>
+  <si>
+    <t>oss</t>
+  </si>
+  <si>
+    <t>oss权限安全管理，梳理权限。ak，角色多对多</t>
+  </si>
+  <si>
+    <t>备案，隔离划分</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>弱口令、公共账号</t>
+  </si>
+  <si>
+    <t>管理员设置密码规则</t>
+  </si>
+  <si>
+    <t>从oa获取</t>
+  </si>
+  <si>
+    <t>代码资产</t>
+  </si>
+  <si>
+    <t>权限过大，git管理混乱、无有效期设置</t>
+  </si>
+  <si>
+    <t>权限审计、设置申请流程</t>
+  </si>
+  <si>
+    <t>git仓库按产品梳理分组</t>
+  </si>
+  <si>
+    <t>容器资产</t>
+  </si>
+  <si>
+    <t>K8S</t>
+  </si>
+  <si>
+    <t>权限过大，权限信息缺失，公共账号</t>
+  </si>
+  <si>
+    <t>权限管理表格</t>
+  </si>
+  <si>
+    <t>漏洞</t>
+  </si>
+  <si>
+    <t>漏洞跟进复测</t>
+  </si>
+  <si>
+    <t>漏洞提醒</t>
+  </si>
+  <si>
+    <t>禅道、SRC等</t>
+  </si>
+  <si>
+    <t>公司员工</t>
+  </si>
+  <si>
+    <t>员工</t>
+  </si>
+  <si>
+    <t>内鬼，安全意识</t>
+  </si>
+  <si>
+    <t>安全意识培训，法律科普，DLP等监控设备安装</t>
+  </si>
+  <si>
+    <t>全员培训</t>
+  </si>
+  <si>
+    <t>网络资产</t>
+  </si>
+  <si>
+    <t>网络职能混淆混乱</t>
+  </si>
+  <si>
+    <t>弱口令等网络接入控制</t>
+  </si>
+  <si>
+    <t>开发网络</t>
+  </si>
+  <si>
+    <t>ad域</t>
+  </si>
+  <si>
+    <t>网络隔离问题</t>
+  </si>
+  <si>
+    <t>平台账号资产</t>
+  </si>
+  <si>
+    <t>微博，B站，知乎，微信</t>
+  </si>
+  <si>
+    <t>开发组件，服务组件等工具类</t>
+  </si>
+  <si>
+    <t>Xcode，phpstudy</t>
+  </si>
+  <si>
+    <t>供应链投毒攻击</t>
+  </si>
+  <si>
+    <t>传统资产管理系统的升级或互相调用</t>
+  </si>
+  <si>
+    <t>资源</t>
+  </si>
+  <si>
+    <t>动态IP</t>
+  </si>
+  <si>
+    <t>验证码短信资源</t>
+  </si>
+  <si>
     <t>域名</t>
   </si>
   <si>
-    <t>通过持续性扫描获取</t>
-  </si>
-  <si>
-    <t>IP</t>
-  </si>
-  <si>
-    <t>权限管理</t>
-  </si>
-  <si>
-    <t>通过云服务接口获取</t>
-  </si>
-  <si>
-    <t>OSS服务</t>
-  </si>
-  <si>
-    <t>mysql</t>
-  </si>
-  <si>
-    <t>办公网络</t>
-  </si>
-  <si>
-    <t>测试网络</t>
-  </si>
-  <si>
-    <t>生产网络</t>
-  </si>
-  <si>
-    <t>DMZ</t>
-  </si>
-  <si>
-    <t>分类</t>
-  </si>
-  <si>
-    <t>分类依据</t>
-  </si>
-  <si>
-    <t>资产项</t>
-  </si>
-  <si>
-    <t>安全管理体系</t>
-  </si>
-  <si>
-    <t>技术体系</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>基础资源</t>
-  </si>
-  <si>
-    <t>可被消耗，占用，按量计费</t>
-  </si>
-  <si>
-    <t>服务器</t>
-  </si>
-  <si>
-    <t>主机安全规定</t>
-  </si>
-  <si>
-    <t>如果有项目系统之类的东西，需要设置规则将安全默认加入每个项目中。系统按节点给安全发通知。</t>
-  </si>
-  <si>
-    <t>资产发现。</t>
-  </si>
-  <si>
-    <t>基础服务</t>
-  </si>
-  <si>
-    <t>只能按时间计费</t>
-  </si>
-  <si>
-    <t>可建设SDL系统，内置常见功能项，让开发选择，选择后自动生成需求表给开发。</t>
-  </si>
-  <si>
-    <t>SDL系统应设置后台功能可添加功能模块或安全需求条目</t>
-  </si>
-  <si>
-    <t>数据库</t>
-  </si>
-  <si>
-    <t>管道</t>
-  </si>
-  <si>
-    <t>jump批量对基线进行检查</t>
-  </si>
-  <si>
-    <t>硬件功能性设备</t>
-  </si>
-  <si>
-    <t>公网映射管理</t>
-  </si>
-  <si>
-    <t>端口开发管理</t>
-  </si>
-  <si>
-    <t>资源</t>
-  </si>
-  <si>
-    <t>动态IP</t>
-  </si>
-  <si>
-    <t>验证码短信资源</t>
-  </si>
-  <si>
     <t>OSS</t>
   </si>
   <si>
@@ -191,490 +461,232 @@
     <t>VPC服务</t>
   </si>
   <si>
-    <t>资产梳理</t>
-  </si>
-  <si>
-    <t>是否存在</t>
-  </si>
-  <si>
-    <t>安全管理问题，权限管理要重点关注</t>
-  </si>
-  <si>
-    <t>管理方案</t>
-  </si>
-  <si>
-    <t>梳理方法</t>
-  </si>
-  <si>
-    <t>IP类</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>归属部门、归属项目、所在位置、登录权限、敏感服务、网段网络隔离、数据库与应用的用途隔离等</t>
-  </si>
-  <si>
-    <t>jumpserver，服务器备案，敏感服务划分及扫描，网络隔离</t>
-  </si>
-  <si>
-    <t>云服务器可使用官方接口获取入库，IDC服务器可使用网段扫描，办公室可手动统计</t>
-  </si>
-  <si>
-    <t>K8S自带隔离及管理</t>
+    <t>视频课程</t>
+  </si>
+  <si>
+    <t>随堂测试</t>
+  </si>
+  <si>
+    <t>针对产品的培训</t>
+  </si>
+  <si>
+    <t>为什么需要安全评估，安全需求</t>
+  </si>
+  <si>
+    <t>针对开发的培训</t>
+  </si>
+  <si>
+    <t>安全开发规范</t>
+  </si>
+  <si>
+    <t>安全编码规范</t>
+  </si>
+  <si>
+    <t>针对测试的培训</t>
+  </si>
+  <si>
+    <t>为什么需要安全测试，两者的区别</t>
+  </si>
+  <si>
+    <t>针对运维的培训</t>
+  </si>
+  <si>
+    <t>见安全需求表</t>
+  </si>
+  <si>
+    <t>评估项</t>
+  </si>
+  <si>
+    <t>评估内容</t>
+  </si>
+  <si>
+    <t>安全需求确认</t>
+  </si>
+  <si>
+    <t>开发签字确认接收了安全需求表</t>
+  </si>
+  <si>
+    <t>开发技术选型</t>
+  </si>
+  <si>
+    <t>开发框架漏洞，不安全的使用方式等培训规避</t>
+  </si>
+  <si>
+    <t>应用网络拓扑</t>
+  </si>
+  <si>
+    <t>负载均衡，网关，路由，数据库等拓扑评估。4层防御或七层防御或不上防护功能</t>
+  </si>
+  <si>
+    <t>CICD工作流环境评估</t>
+  </si>
+  <si>
+    <t>内外网，权限等</t>
+  </si>
+  <si>
+    <t>应用发布流评估</t>
+  </si>
+  <si>
+    <t>见安全评估表</t>
+  </si>
+  <si>
+    <t>安全开发环境，零信任，工具链，依赖包，防止供应链攻击</t>
+  </si>
+  <si>
+    <t>技术方案只有零信任</t>
+  </si>
+  <si>
+    <t>其他都是管理方案</t>
+  </si>
+  <si>
+    <t>资产</t>
+  </si>
+  <si>
+    <t>检查项</t>
+  </si>
+  <si>
+    <t>检查方式</t>
+  </si>
+  <si>
+    <t>敏感服务</t>
+  </si>
+  <si>
+    <t>端口扫描</t>
+  </si>
+  <si>
+    <t>linglong+xray</t>
+  </si>
+  <si>
+    <t>系统漏洞</t>
+  </si>
+  <si>
+    <t>HIDS客户端、内网渗透</t>
+  </si>
+  <si>
+    <t>弱口令</t>
+  </si>
+  <si>
+    <t>渗透测试</t>
+  </si>
+  <si>
+    <t>敏感路径敏感文件</t>
+  </si>
+  <si>
+    <t>扫描</t>
+  </si>
+  <si>
+    <t>xray+crwler</t>
+  </si>
+  <si>
+    <t>渗透测试、自动化回归/渗透测试</t>
+  </si>
+  <si>
+    <t>有效期</t>
+  </si>
+  <si>
+    <t>代码检查</t>
+  </si>
+  <si>
+    <t>过期报警</t>
+  </si>
+  <si>
+    <t>合规检查</t>
+  </si>
+  <si>
+    <t>用户协议</t>
+  </si>
+  <si>
+    <t>数据安全</t>
+  </si>
+  <si>
+    <t>内容安全</t>
+  </si>
+  <si>
+    <t>逻辑漏洞</t>
+  </si>
+  <si>
+    <t>渗透测试、IAST等动态模糊测试</t>
+  </si>
+  <si>
+    <t>开放框架，依赖漏洞</t>
+  </si>
+  <si>
+    <t>依赖包检查，git或HIDS</t>
+  </si>
+  <si>
+    <t>https://owasp.org/www-project-dependency-check/</t>
+  </si>
+  <si>
+    <t>https://dimitr.im/dependency-vulnerability-checks-sonarqube</t>
+  </si>
+  <si>
+    <t>威胁建模</t>
+  </si>
+  <si>
+    <t>梳理应用组件，梳理数据流。自动化，根据从应用类型生成评估列表，列表生成规则，规则自动化检查CICD</t>
+  </si>
+  <si>
+    <t>业务安全</t>
+  </si>
+  <si>
+    <t>薅羊毛、爬虫、作弊等</t>
+  </si>
+  <si>
+    <t>权限审计</t>
+  </si>
+  <si>
+    <t>安全使用（升级、隔离、审计、不共享等等）</t>
+  </si>
+  <si>
+    <t>审计</t>
+  </si>
+  <si>
+    <t>代码逻辑漏洞审计，代码权限审计，代码拉取行为审计，安全开发规范审计</t>
+  </si>
+  <si>
+    <t>创建CICD审计规则</t>
+  </si>
+  <si>
+    <t>依赖安全检查</t>
+  </si>
+  <si>
+    <t>容器资产/K8S</t>
+  </si>
+  <si>
+    <t>镜像安全检查</t>
+  </si>
+  <si>
+    <t>管理端安全配置检查</t>
+  </si>
+  <si>
+    <t>安全意识考试、钓鱼测试、账号弱口令</t>
+  </si>
+  <si>
+    <t>流程卡点是SDL成功的关键，我们介入了所有可能的环节。比如采购、域名申请、cmdb 申请、研发部署的准入准出卡点，这个尤为重要，通过平台将Git url（代码仓库地址）和commit id（版本号）发给SDL平台，SDL平台根据Git url和commit id生成扫描任务，并将该扫描任务发送给白盒扫描器，白盒扫描器按照给定任务中的Git url和commit id拉取代码进行分析，并将扫描结果返回给SDL平台，SDL平台接收到扫描结果后，将结果中的漏洞推送到安全平台，由安全平台将漏洞发送给对应的安全工程师进行漏洞修复。</t>
+  </si>
+  <si>
+    <t>我们提供了靶机、培训视频、漏洞原理（bad case）以及如何针对不同代码的修复方法。而且这个是平台自动携带相关信息推送给 rd，不需要人工干预，除非过程中不明白会联系我们指导。</t>
+  </si>
+  <si>
+    <t>威胁建模一定要简单，以暴露面为主，核心就是认证授权和数据处理等红线，千万别搞个大而全的方案无法落地</t>
+  </si>
+  <si>
+    <t>埋进pipelines流水线，构建时把组件依赖关系记录下来，爆发时再查，对集成包的组件包和 CVE 进行比对。会要求升级，如果环境不对外开放可例外与业务分析风险是否接受。</t>
+  </si>
+  <si>
+    <t>HIDS/高防/防火墙</t>
+  </si>
+  <si>
+    <t>阿里云基础版免费</t>
+  </si>
+  <si>
+    <t>https://help.aliyun.com/document_detail/213179.html</t>
   </si>
   <si>
     <t>负载均衡/动态IP</t>
   </si>
   <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>归属部门、归属项目、所在位置、使用状态、绑定机器</t>
-  </si>
-  <si>
-    <t>备案</t>
-  </si>
-  <si>
-    <t>使用接口获取入库</t>
-  </si>
-  <si>
     <t>办公网基础设备（交换机、路由器、打印机）</t>
-  </si>
-  <si>
-    <t>网络管理</t>
-  </si>
-  <si>
-    <t>AD域</t>
-  </si>
-  <si>
-    <t>手动统计</t>
-  </si>
-  <si>
-    <t>域名类</t>
-  </si>
-  <si>
-    <t>公司域名</t>
-  </si>
-  <si>
-    <t>域名续费及证书、所属项目</t>
-  </si>
-  <si>
-    <t>过期监控、域名备案</t>
-  </si>
-  <si>
-    <t>使用接口入库</t>
-  </si>
-  <si>
-    <t>CDN、waf、K8S等云服务</t>
-  </si>
-  <si>
-    <t>续费、归属、域名解析等</t>
-  </si>
-  <si>
-    <t>过期监控、服务备案</t>
-  </si>
-  <si>
-    <t>应用资产</t>
-  </si>
-  <si>
-    <t>web系统</t>
-  </si>
-  <si>
-    <t>归属部门、归属项目、。后台类系统的公共账号</t>
-  </si>
-  <si>
-    <t>域名备案、系统不允许存在公共账号</t>
-  </si>
-  <si>
-    <t>对应域名入库</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>渠道上架账号，用户协议合规等合规类规定</t>
-  </si>
-  <si>
-    <t>限制接触范围</t>
-  </si>
-  <si>
-    <t>对应域名入库、从各平台商店获取</t>
-  </si>
-  <si>
-    <t>小程序、公众号等</t>
-  </si>
-  <si>
-    <t>渠道上架账号</t>
-  </si>
-  <si>
-    <t>数据资产</t>
-  </si>
-  <si>
-    <t>归属及账号管理、外网、访问权限</t>
-  </si>
-  <si>
-    <t>备案、网络隔离、权限隔离</t>
-  </si>
-  <si>
-    <t>敏感服务扫描，云服务备案</t>
-  </si>
-  <si>
-    <t>日志中心</t>
-  </si>
-  <si>
-    <t>账号管理、外网、访问权限、敏感信息</t>
-  </si>
-  <si>
-    <t>备案、网络隔离、权限隔离、不收录敏感信息</t>
-  </si>
-  <si>
-    <t>手动统计、域名备案</t>
-  </si>
-  <si>
-    <t>数据平台/大数据</t>
-  </si>
-  <si>
-    <t>mq等队列</t>
-  </si>
-  <si>
-    <t>第三方系统或服务</t>
-  </si>
-  <si>
-    <t>oss</t>
-  </si>
-  <si>
-    <t>oss权限安全管理，梳理权限。ak，角色多对多</t>
-  </si>
-  <si>
-    <t>备案，隔离划分</t>
-  </si>
-  <si>
-    <t>邮箱</t>
-  </si>
-  <si>
-    <t>弱口令、公共账号</t>
-  </si>
-  <si>
-    <t>管理员设置密码规则</t>
-  </si>
-  <si>
-    <t>从oa获取</t>
-  </si>
-  <si>
-    <t>代码资产</t>
-  </si>
-  <si>
-    <t>权限过大，git管理混乱、无有效期设置</t>
-  </si>
-  <si>
-    <t>权限审计、设置申请流程</t>
-  </si>
-  <si>
-    <t>git仓库按产品梳理分组</t>
-  </si>
-  <si>
-    <t>容器资产</t>
-  </si>
-  <si>
-    <t>K8S</t>
-  </si>
-  <si>
-    <t>权限过大，权限信息缺失，公共账号</t>
-  </si>
-  <si>
-    <t>权限管理表格</t>
-  </si>
-  <si>
-    <t>漏洞</t>
-  </si>
-  <si>
-    <t>漏洞跟进复测</t>
-  </si>
-  <si>
-    <t>漏洞提醒</t>
-  </si>
-  <si>
-    <t>禅道、SRC等</t>
-  </si>
-  <si>
-    <t>公司员工</t>
-  </si>
-  <si>
-    <t>员工</t>
-  </si>
-  <si>
-    <t>内鬼，安全意识</t>
-  </si>
-  <si>
-    <t>安全意识培训，法律科普，DLP等监控设备安装</t>
-  </si>
-  <si>
-    <t>全员培训</t>
-  </si>
-  <si>
-    <t>网络资产</t>
-  </si>
-  <si>
-    <t>网络职能混淆混乱</t>
-  </si>
-  <si>
-    <t>弱口令等网络接入控制</t>
-  </si>
-  <si>
-    <t>开发网络</t>
-  </si>
-  <si>
-    <t>ad域</t>
-  </si>
-  <si>
-    <t>网络隔离问题</t>
-  </si>
-  <si>
-    <t>平台账号资产</t>
-  </si>
-  <si>
-    <t>微博，B站，知乎，微信</t>
-  </si>
-  <si>
-    <t>开发组件，服务组件等工具类</t>
-  </si>
-  <si>
-    <t>Xcode，phpstudy</t>
-  </si>
-  <si>
-    <t>供应链投毒攻击</t>
-  </si>
-  <si>
-    <t>传统资产管理系统的升级或互相调用</t>
-  </si>
-  <si>
-    <t>视频课程</t>
-  </si>
-  <si>
-    <t>随堂测试</t>
-  </si>
-  <si>
-    <t>针对产品的培训</t>
-  </si>
-  <si>
-    <t>为什么需要安全评估，安全需求</t>
-  </si>
-  <si>
-    <t>针对开发的培训</t>
-  </si>
-  <si>
-    <t>安全开发规范</t>
-  </si>
-  <si>
-    <t>安全编码规范</t>
-  </si>
-  <si>
-    <t>针对测试的培训</t>
-  </si>
-  <si>
-    <t>为什么需要安全测试，两者的区别</t>
-  </si>
-  <si>
-    <t>针对运维的培训</t>
-  </si>
-  <si>
-    <t>见安全需求表</t>
-  </si>
-  <si>
-    <t>评估项</t>
-  </si>
-  <si>
-    <t>评估内容</t>
-  </si>
-  <si>
-    <t>安全需求确认</t>
-  </si>
-  <si>
-    <t>开发签字确认接收了安全需求表</t>
-  </si>
-  <si>
-    <t>开发技术选型</t>
-  </si>
-  <si>
-    <t>开发框架漏洞，不安全的使用方式等培训规避</t>
-  </si>
-  <si>
-    <t>应用网络拓扑</t>
-  </si>
-  <si>
-    <t>负载均衡，网关，路由，数据库等拓扑评估。4层防御或七层防御或不上防护功能</t>
-  </si>
-  <si>
-    <t>CICD工作流环境评估</t>
-  </si>
-  <si>
-    <t>内外网，权限等</t>
-  </si>
-  <si>
-    <t>应用发布流评估</t>
-  </si>
-  <si>
-    <t>见安全评估表</t>
-  </si>
-  <si>
-    <t>安全开发环境，零信任，工具链，依赖包，防止供应链攻击</t>
-  </si>
-  <si>
-    <t>技术方案只有零信任</t>
-  </si>
-  <si>
-    <t>其他都是管理方案</t>
-  </si>
-  <si>
-    <t>资产</t>
-  </si>
-  <si>
-    <t>检查项</t>
-  </si>
-  <si>
-    <t>检查方式</t>
-  </si>
-  <si>
-    <t>敏感服务</t>
-  </si>
-  <si>
-    <t>端口扫描</t>
-  </si>
-  <si>
-    <t>linglong+xray</t>
-  </si>
-  <si>
-    <t>系统漏洞</t>
-  </si>
-  <si>
-    <t>HIDS客户端、内网渗透</t>
-  </si>
-  <si>
-    <t>弱口令</t>
-  </si>
-  <si>
-    <t>渗透测试</t>
-  </si>
-  <si>
-    <t>敏感路径敏感文件</t>
-  </si>
-  <si>
-    <t>扫描</t>
-  </si>
-  <si>
-    <t>xray+crwler</t>
-  </si>
-  <si>
-    <t>渗透测试、自动化回归/渗透测试</t>
-  </si>
-  <si>
-    <t>有效期</t>
-  </si>
-  <si>
-    <t>代码检查</t>
-  </si>
-  <si>
-    <t>过期报警</t>
-  </si>
-  <si>
-    <t>合规检查</t>
-  </si>
-  <si>
-    <t>用户协议</t>
-  </si>
-  <si>
-    <t>数据安全</t>
-  </si>
-  <si>
-    <t>内容安全</t>
-  </si>
-  <si>
-    <t>逻辑漏洞</t>
-  </si>
-  <si>
-    <t>渗透测试、IAST等动态模糊测试</t>
-  </si>
-  <si>
-    <t>开放框架，依赖漏洞</t>
-  </si>
-  <si>
-    <t>依赖包检查，git或HIDS</t>
-  </si>
-  <si>
-    <t>https://owasp.org/www-project-dependency-check/</t>
-  </si>
-  <si>
-    <t>https://dimitr.im/dependency-vulnerability-checks-sonarqube</t>
-  </si>
-  <si>
-    <t>威胁建模</t>
-  </si>
-  <si>
-    <t>梳理应用组件，梳理数据流。自动化，根据从应用类型生成评估列表，列表生成规则，规则自动化检查CICD</t>
-  </si>
-  <si>
-    <t>业务安全</t>
-  </si>
-  <si>
-    <t>薅羊毛、爬虫、作弊等</t>
-  </si>
-  <si>
-    <t>权限审计</t>
-  </si>
-  <si>
-    <t>安全使用（升级、隔离、审计、不共享等等）</t>
-  </si>
-  <si>
-    <t>审计</t>
-  </si>
-  <si>
-    <t>安全审计</t>
-  </si>
-  <si>
-    <t>代码逻辑漏洞审计，代码权限审计，代码拉取行为审计，安全开发规范审计</t>
-  </si>
-  <si>
-    <t>创建CICD审计规则</t>
-  </si>
-  <si>
-    <t>依赖安全检查</t>
-  </si>
-  <si>
-    <t>容器资产/K8S</t>
-  </si>
-  <si>
-    <t>镜像安全检查</t>
-  </si>
-  <si>
-    <t>管理端安全配置检查</t>
-  </si>
-  <si>
-    <t>安全意识考试、钓鱼测试、账号弱口令</t>
-  </si>
-  <si>
-    <t>流程卡点是SDL成功的关键，我们介入了所有可能的环节。比如采购、域名申请、cmdb 申请、研发部署的准入准出卡点，这个尤为重要，通过平台将Git url（代码仓库地址）和commit id（版本号）发给SDL平台，SDL平台根据Git url和commit id生成扫描任务，并将该扫描任务发送给白盒扫描器，白盒扫描器按照给定任务中的Git url和commit id拉取代码进行分析，并将扫描结果返回给SDL平台，SDL平台接收到扫描结果后，将结果中的漏洞推送到安全平台，由安全平台将漏洞发送给对应的安全工程师进行漏洞修复。</t>
-  </si>
-  <si>
-    <t>我们提供了靶机、培训视频、漏洞原理（bad case）以及如何针对不同代码的修复方法。而且这个是平台自动携带相关信息推送给 rd，不需要人工干预，除非过程中不明白会联系我们指导。</t>
-  </si>
-  <si>
-    <t>威胁建模一定要简单，以暴露面为主，核心就是认证授权和数据处理等红线，千万别搞个大而全的方案无法落地</t>
-  </si>
-  <si>
-    <t>埋进pipelines流水线，构建时把组件依赖关系记录下来，爆发时再查，对集成包的组件包和 CVE 进行比对。会要求升级，如果环境不对外开放可例外与业务分析风险是否接受。</t>
-  </si>
-  <si>
-    <t>安全加固</t>
-  </si>
-  <si>
-    <t>HIDS/高防/防火墙</t>
-  </si>
-  <si>
-    <t>阿里云基础版免费</t>
-  </si>
-  <si>
-    <t>https://help.aliyun.com/document_detail/213179.html</t>
   </si>
   <si>
     <t>办公网安全设备，流量分析设备，AD域管理，网络准入管理</t>
@@ -1444,7 +1456,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1480,6 +1492,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1829,13 +1844,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="21.9090909090909" customWidth="1"/>
     <col min="2" max="2" width="19.4545454545455" customWidth="1"/>
@@ -1865,20 +1880,45 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1893,7 +1933,7 @@
   <dimension ref="A2:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1907,17 +1947,17 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -2127,8 +2167,8 @@
   <sheetPr/>
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -2142,45 +2182,45 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" ht="28" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="2:2">
@@ -2188,25 +2228,25 @@
     </row>
     <row r="6" ht="28" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2214,10 +2254,10 @@
     <row r="8" s="1" customFormat="1" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2225,13 +2265,13 @@
     <row r="9" s="1" customFormat="1" spans="1:5">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -2244,95 +2284,95 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" ht="126" spans="1:5">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" s="7" customFormat="1"/>
     <row r="19" s="7" customFormat="1"/>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" ht="28" spans="1:3">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="2:2">
@@ -2340,43 +2380,43 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -2392,22 +2432,22 @@
     </row>
     <row r="30" ht="28" spans="1:4">
       <c r="A30" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>200</v>
+        <v>6</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2416,16 +2456,16 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="3"/>
       <c r="B34" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="2:5">
@@ -2440,10 +2480,10 @@
     </row>
     <row r="37" s="1" customFormat="1" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -2455,10 +2495,10 @@
     </row>
     <row r="39" s="1" customFormat="1" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -2480,24 +2520,24 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B43" s="3"/>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B44" s="3"/>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2533,215 +2573,215 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>212</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" ht="42" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>219</v>
       </c>
       <c r="C4" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" ht="28" spans="1:3">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3"/>
       <c r="B10" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3"/>
       <c r="B11" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" ht="28" spans="1:3">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C15" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" ht="28" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C18" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C27" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" ht="28" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C29" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C32" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2779,206 +2819,206 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3"/>
       <c r="B10" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3"/>
       <c r="B11" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C18" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D21" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C23" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C25" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D25" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C27" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C29" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -3008,35 +3048,35 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C4" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3049,98 +3089,144 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="17.9090909090909" customWidth="1"/>
-    <col min="3" max="3" width="14.5454545454545" customWidth="1"/>
-    <col min="4" max="4" width="15.3636363636364" customWidth="1"/>
-    <col min="5" max="5" width="18.3636363636364" customWidth="1"/>
+    <col min="1" max="1" width="20.0909090909091" customWidth="1"/>
+    <col min="2" max="2" width="19.4545454545455" customWidth="1"/>
+    <col min="3" max="3" width="18.8181818181818" customWidth="1"/>
+    <col min="4" max="4" width="14.5454545454545" customWidth="1"/>
+    <col min="5" max="5" width="15.3636363636364" customWidth="1"/>
+    <col min="6" max="6" width="18.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:5">
+    <row r="1" customFormat="1" spans="1:6">
       <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>26</v>
+      </c>
+      <c r="B6" s="12"/>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>27</v>
+      </c>
+      <c r="B7" s="12"/>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>28</v>
+      </c>
+      <c r="B8" s="12"/>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>29</v>
+      </c>
+      <c r="B9" s="12"/>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="B10" s="12"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="12"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="12"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="12"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="12"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:B13"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -3152,7 +3238,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -3166,85 +3252,81 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="70" spans="1:6">
       <c r="A2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>33</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B2" s="9"/>
       <c r="C2" s="9" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" ht="56" spans="1:7">
       <c r="A3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>39</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B3" s="9"/>
       <c r="E3" s="9" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" s="9" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" ht="28" spans="3:4">
       <c r="C8" s="9" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="3:4">
       <c r="C9" s="9" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" s="9" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3307,84 +3389,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelRow="5"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelRow="1"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -3402,35 +3410,29 @@
   <sheetData>
     <row r="1" ht="28" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" ht="76" customHeight="1" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -3448,217 +3450,211 @@
     </row>
     <row r="3" ht="49" customHeight="1" spans="1:6">
       <c r="A3" s="4"/>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2"/>
+      <c r="D4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" ht="42" spans="1:6">
-      <c r="A4" s="4"/>
-      <c r="B4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="6" ht="28" spans="1:6">
       <c r="A6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="7" ht="28" spans="1:6">
       <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" ht="42" spans="1:6">
       <c r="A9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="10" ht="28" spans="1:6">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="36" customHeight="1" spans="1:9">
       <c r="A13" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I13" s="2"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="42" spans="1:9">
       <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="42" spans="1:9">
       <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" ht="42" spans="1:6">
       <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="42" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:9">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I19" s="2"/>
     </row>
@@ -3673,135 +3669,135 @@
     </row>
     <row r="21" ht="28" spans="1:6">
       <c r="A21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="23" ht="28" spans="1:5">
       <c r="A23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>115</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" ht="28" spans="1:6">
       <c r="A27" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="28" spans="6:6">
       <c r="F28" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" ht="28" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" ht="28" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" ht="28" spans="1:1">
       <c r="A40" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3812,6 +3808,80 @@
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="A18:A19"/>
   </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelRow="5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -3835,49 +3905,49 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="3:3">
       <c r="C2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C12" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3903,7 +3973,7 @@
   <sheetData>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3932,52 +4002,52 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:1">
